--- a/attached_assets/aves_Toca_v2 (1).xlsx
+++ b/attached_assets/aves_Toca_v2 (1).xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13230"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="EQTs1QD2CGRwHpuEGq8ifoWu0RAqkeu3yOi07I+Vq1c="/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="401">
   <si>
     <t>Espécie</t>
   </si>
@@ -1048,125 +1051,302 @@
   </si>
   <si>
     <t>Frutas, ovos e filhotes no ninho</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Chlorophanes_spiza_%28Trinidad%29.jpg/280px-Chlorophanes_spiza_%28Trinidad%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Dacnis_cayana.jpg/280px-Dacnis_cayana.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Tangara_seledon_Itamambuca_Eco_Resort.jpg/280px-Tangara_seledon_Itamambuca_Eco_Resort.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/e/e2/Sa%C3%ADra_Militar.jpg/280px-Sa%C3%ADra_Militar.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Thraupis_palmarum.jpg/280px-Thraupis_palmarum.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/9/97/Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg/280px-Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/6/66/Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg/280px-Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg/280px-Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/32/Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg/280px-Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg/280px-Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/44/Turdus-rufiventris.jpg/330px-Turdus-rufiventris.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Yellow-legged_Thrush_%2817594966420%29.jpg/280px-Yellow-legged_Thrush_%2817594966420%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Turdus_albicollis.jpg/330px-Turdus_albicollis.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/2/22/Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg/330px-Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/76/ALMA-DE-GATO_%28Piaya_cayana%29.jpg/280px-ALMA-DE-GATO_%28Piaya_cayana%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/88/Trogon_surrucura_brazil.jpg/280px-Trogon_surrucura_brazil.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/53/Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg/280px-Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Tiriba-de-testa-vermelha.jpg/280px-Tiriba-de-testa-vermelha.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/49/Amazona_farinosa_at_Jungle_Island-4c.jpg/330px-Amazona_farinosa_at_Jungle_Island-4c.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/10/Waxbill_on_coin%2C_Ascension_Island.JPG/330px-Waxbill_on_coin%2C_Ascension_Island.JPG</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Pitangus_sulphuratus_3.jpg/330px-Pitangus_sulphuratus_3.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Piratic_Flycatcher.jpg/280px-Piratic_Flycatcher.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Tyrannus-melancholicus-001.jpg/280px-Tyrannus-melancholicus-001.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/b/b5/Bananaquits.jpg/330px-Bananaquits.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/e/ec/Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg/330px-Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg/280px-Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Herpsilochmus_rufimarginatus.jpg/330px-Herpsilochmus_rufimarginatus.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Campephilus_robustus_-Argentina-3.jpg/280px-Campephilus_robustus_-Argentina-3.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Blond-crested_Woodpecker.jpg/280px-Blond-crested_Woodpecker.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/d5/Benedito_de_testa_amarela.jpg/280px-Benedito_de_testa_amarela.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/19/Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg/330px-Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/8f/MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg/330px-MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/48/Tinamus_solitarius_5.jpg/330px-Tinamus_solitarius_5.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29.jpg/330px-Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Soco_boi.jpg/280px-Soco_boi.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/3c/VioletDove2.jpg/330px-VioletDove2.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/2/21/Scaled_Pigeon.jpg/280px-Scaled_Pigeon.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg/330px-Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Procnias_nudicollis.jpg/330px-Procnias_nudicollis.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg/280px-Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/4/43/Cyclarhis_gujanensis_-eating_green_caterpillar.jpg/280px-Cyclarhis_gujanensis_-eating_green_caterpillar.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg/280px-Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Schopfkarakara.jpg/330px-Schopfkarakara.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Buteo_magnirostris_-Goias_-Brazil-8.jpg/280px-Buteo_magnirostris_-Goias_-Brazil-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/1/10/TF_Wildpark_Johannismuehle_03-14_img11.jpg/330px-TF_Wildpark_Johannismuehle_03-14_img11.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/da/Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg/280px-Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/0/00/Ramphodon_naevius_1.jpg/330px-Ramphodon_naevius_1.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/3/3f/Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg/280px-Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/e/ef/ThaluraniaGlaucopis200805DarioSanches.jpg/280px-ThaluraniaGlaucopis200805DarioSanches.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Clytolaema_rubricauda_female.jpg/330px-Clytolaema_rubricauda_female.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/59/Aphantochroa_cirrochloris-3.jpg/330px-Aphantochroa_cirrochloris-3.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg/330px-Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/8/8b/Anthracothorax_nigricollis_1152.jpg/330px-Anthracothorax_nigricollis_1152.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/5/58/Lophornis_chalybeus_1.jpg/280px-Lophornis_chalybeus_1.jpg</t>
+  </si>
+  <si>
+    <t>//upload.wikimedia.org/wikipedia/commons/thumb/d/de/Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg/330px-Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
@@ -1176,7 +1356,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1192,7 +1372,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1206,92 +1392,83 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1481,29 +1658,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.33"/>
-    <col customWidth="1" min="2" max="5" width="32.44"/>
-    <col customWidth="1" min="6" max="7" width="33.11"/>
-    <col customWidth="1" min="8" max="8" width="12.78"/>
-    <col customWidth="1" min="9" max="9" width="13.78"/>
-    <col customWidth="1" min="10" max="10" width="73.44"/>
-    <col customWidth="1" min="11" max="44" width="8.78"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="73.44140625" customWidth="1"/>
+    <col min="11" max="44" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:44" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:44" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1545,9 +1724,8 @@
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C2 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Chlorophanes_spiza_%28Trinidad%29.jpg/280px-Chlorophanes_spiza_%28Trinidad%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Chlorophanes_spiza_%28Trinidad%29.jpg/280px-Chlorophanes_spiza_%28Trinidad%29.jpg</v>
+      <c r="D2" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>13</v>
@@ -1565,18 +1743,18 @@
         <v>17</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B2,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 13,5 cm de comprimento e pesa 18,5g (macho). O macho é verde-azulado, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B2,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 13,5 cm de comprimento e pesa 18,5g (macho). O macho é verde-azulado, 
 com o alto e os lados da cabeça pretos e os olhos vermelhos, e a fêmea é 
 verde-opaca, com a garganta e o centro da barriga amarelados e os olhos 
 escuros. Tem bico relativamente"&amp;" largo, de mandíbula amarelo-clara. ")</f>
-        <v> Mede 13,5 cm de comprimento e pesa 18,5g (macho). O macho é verde-azulado, 
+        <v xml:space="preserve"> Mede 13,5 cm de comprimento e pesa 18,5g (macho). O macho é verde-azulado, 
 com o alto e os lados da cabeça pretos e os olhos vermelhos, e a fêmea é 
 verde-opaca, com a garganta e o centro da barriga amarelados e os olhos 
 escuros. Tem bico relativamente largo, de mandíbula amarelo-clara. </v>
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:44" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1586,9 +1764,8 @@
       <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C3 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Dacnis_cayana.jpg/280px-Dacnis_cayana.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Dacnis_cayana.jpg/280px-Dacnis_cayana.jpg</v>
+      <c r="D3" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -1606,11 +1783,11 @@
         <v>17</v>
       </c>
       <c r="J3" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B3,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 13 centímetros de comprimento e pesa, em média, 16 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B3,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 13 centímetros de comprimento e pesa, em média, 16 
 gramas. Apresenta acentuado dimorfismo sexual: o macho é azul e negro, com 
 as pernas rosadas, enquanto a fêmea é verde, com a cabeça azulada e pernas 
 alaranjadas. Seu canto é um g"&amp;"orjear fraco. ")</f>
-        <v> Mede aproximadamente 13 centímetros de comprimento e pesa, em média, 16 
+        <v xml:space="preserve"> Mede aproximadamente 13 centímetros de comprimento e pesa, em média, 16 
 gramas. Apresenta acentuado dimorfismo sexual: o macho é azul e negro, com 
 as pernas rosadas, enquanto a fêmea é verde, com a cabeça azulada e pernas 
 alaranjadas. Seu canto é um gorjear fraco. </v>
@@ -1623,7 +1800,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:44" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1633,9 +1810,8 @@
       <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C4 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Tangara_seledon_Itamambuca_Eco_Resort.jpg/280px-Tangara_seledon_Itamambuca_Eco_Resort.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Tangara_seledon_Itamambuca_Eco_Resort.jpg/280px-Tangara_seledon_Itamambuca_Eco_Resort.jpg</v>
+      <c r="D4" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>25</v>
@@ -1653,12 +1829,12 @@
         <v>17</v>
       </c>
       <c r="J4" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B4,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 13,5 centímetros de comprimento e pesa cerca de 18 gramas.")</f>
-        <v> Mede cerca de 13,5 centímetros de comprimento e pesa cerca de 18 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B4,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 13,5 centímetros de comprimento e pesa cerca de 18 gramas.")</f>
+        <v xml:space="preserve"> Mede cerca de 13,5 centímetros de comprimento e pesa cerca de 18 gramas.</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho adulto apresenta plumagem complexa e brilhante. Cabeça, nuca e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho adulto apresenta plumagem complexa e brilhante. Cabeça, nuca e 
 queixo são de coloração turquesa. Uma banda larga verde-amarelo pálido 
 atravessa a nuca e o manto superior, e estende-se em torno dos lados do 
 pescoço para até a garganta. Os ombro"&amp;"s são negros e as coberteiras 
@@ -1670,7 +1846,7 @@
 ventre é verde. O bico é preto e sua base apresenta plumagem preta. Os 
 olhos são escuros com uma região "&amp;"ao redor dos olhos com plumagem preta. Os 
 tarsos e pés são pretos.")</f>
-        <v> O macho adulto apresenta plumagem complexa e brilhante. Cabeça, nuca e 
+        <v xml:space="preserve"> O macho adulto apresenta plumagem complexa e brilhante. Cabeça, nuca e 
 queixo são de coloração turquesa. Uma banda larga verde-amarelo pálido 
 atravessa a nuca e o manto superior, e estende-se em torno dos lados do 
 pescoço para até a garganta. Os ombros são negros e as coberteiras 
@@ -1685,12 +1861,12 @@
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea tem a plumagem bastante semelhante a plumagem do macho, mas ela 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea tem a plumagem bastante semelhante a plumagem do macho, mas ela 
 apresenta a coloração menos intensa aparentando ter as cores mais apagadas. 
 Um detalhe bastante útil na distinção entre machos e fêmeas é a coloração 
 do dorso: as fêmeas possuem d"&amp;"orso esverdeado enquanto os machos tem a mesma 
 área completamente preta")</f>
-        <v> A fêmea tem a plumagem bastante semelhante a plumagem do macho, mas ela 
+        <v xml:space="preserve"> A fêmea tem a plumagem bastante semelhante a plumagem do macho, mas ela 
 apresenta a coloração menos intensa aparentando ter as cores mais apagadas. 
 Um detalhe bastante útil na distinção entre machos e fêmeas é a coloração 
 do dorso: as fêmeas possuem dorso esverdeado enquanto os machos tem a mesma 
@@ -1698,9 +1874,9 @@
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O imaturo é muito parecido com a fêmea, mas muito menos colorido do que os 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O imaturo é muito parecido com a fêmea, mas muito menos colorido do que os 
 adultos. Falta ao imaturo a cor viva do uropígio do adulto. ")</f>
-        <v> O imaturo é muito parecido com a fêmea, mas muito menos colorido do que os 
+        <v xml:space="preserve"> O imaturo é muito parecido com a fêmea, mas muito menos colorido do que os 
 adultos. Falta ao imaturo a cor viva do uropígio do adulto. </v>
       </c>
       <c r="Q4" s="17"/>
@@ -1732,7 +1908,7 @@
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:44" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -1761,22 +1937,22 @@
         <v>16</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B5,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 20 e 21 centímetros de comprimento e pesa entre 36,5 e 51,5 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B5,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 20 e 21 centímetros de comprimento e pesa entre 36,5 e 51,5 
 gramas.")</f>
-        <v> Mede entre 20 e 21 centímetros de comprimento e pesa entre 36,5 e 51,5 
+        <v xml:space="preserve"> Mede entre 20 e 21 centímetros de comprimento e pesa entre 36,5 e 51,5 
 gramas.</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Pássaro ferrugíneo uniforme, com cabeça cinzenta e garganta estriada de 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Pássaro ferrugíneo uniforme, com cabeça cinzenta e garganta estriada de 
 branco. Grandes olhos escuros, tarsos e pés de coloração cinza. Bico longo, 
 chato e rosado. ")</f>
-        <v> Pássaro ferrugíneo uniforme, com cabeça cinzenta e garganta estriada de 
+        <v xml:space="preserve"> Pássaro ferrugíneo uniforme, com cabeça cinzenta e garganta estriada de 
 branco. Grandes olhos escuros, tarsos e pés de coloração cinza. Bico longo, 
 chato e rosado. </v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:44" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1786,9 +1962,8 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C6 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/e/e2/Sa%C3%ADra_Militar.jpg/280px-Sa%C3%ADra_Militar.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/e/e2/Sa%C3%ADra_Militar.jpg/280px-Sa%C3%ADra_Militar.jpg</v>
+      <c r="D6" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>36</v>
@@ -1806,19 +1981,19 @@
         <v>17</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B6,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 10 e 13 centímetros de comprimento e pesa entre 16 e 21 gramas.")</f>
-        <v> Mede entre 10 e 13 centímetros de comprimento e pesa entre 16 e 21 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B6,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 10 e 13 centímetros de comprimento e pesa entre 16 e 21 gramas.")</f>
+        <v xml:space="preserve"> Mede entre 10 e 13 centímetros de comprimento e pesa entre 16 e 21 gramas.</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta a evidente faixa vermelho vivo ao redor do pescoço e coroa azul 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta a evidente faixa vermelho vivo ao redor do pescoço e coroa azul 
 metálico no alto da cabeça. Nas fêmeas a faixa vermelha é mais apagada, 
 tendendo à tonalidade canela. Corpo em tonalidade verde uniforme, com dorso 
 negro e faixa amarela sobre a"&amp;"s penas verdes das asas. As aves das 
 populações do Sul do Brasil, tendem a apresentar tamanho corporal acima da 
 média de 11 centímetros de comprimento. Por sua vez, as saíras-militares do 
 Nordeste são menores, com tamanho abaixo da média padrão. ")</f>
-        <v> Apresenta a evidente faixa vermelho vivo ao redor do pescoço e coroa azul 
+        <v xml:space="preserve"> Apresenta a evidente faixa vermelho vivo ao redor do pescoço e coroa azul 
 metálico no alto da cabeça. Nas fêmeas a faixa vermelha é mais apagada, 
 tendendo à tonalidade canela. Corpo em tonalidade verde uniforme, com dorso 
 negro e faixa amarela sobre as penas verdes das asas. As aves das 
@@ -1837,7 +2012,7 @@
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:44" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -1847,9 +2022,8 @@
       <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C7 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Thraupis_palmarum.jpg/280px-Thraupis_palmarum.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Thraupis_palmarum.jpg/280px-Thraupis_palmarum.jpg</v>
+      <c r="D7" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>40</v>
@@ -1867,34 +2041,34 @@
         <v>16</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B7,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 17 e 18 centímetros de comprimento e pesa 27-48 g.")</f>
-        <v> Mede entre 17 e 18 centímetros de comprimento e pesa 27-48 g.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B7,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 17 e 18 centímetros de comprimento e pesa 27-48 g.")</f>
+        <v xml:space="preserve"> Mede entre 17 e 18 centímetros de comprimento e pesa 27-48 g.</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os três sanhaços, ")</f>
-        <v> Os três sanhaços, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os três sanhaços, ")</f>
+        <v xml:space="preserve"> Os três sanhaços, </v>
       </c>
       <c r="M7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sanhaco-cinzento")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sanhaco-cinzento")</f>
         <v>sanhaco-cinzento</v>
       </c>
       <c r="N7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", ")</f>
-        <v>, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", ")</f>
+        <v xml:space="preserve">, </v>
       </c>
       <c r="O7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sanhaço-da-amazônia")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sanhaço-da-amazônia")</f>
         <v>sanhaço-da-amazônia</v>
       </c>
       <c r="P7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e o sanhaço-do-coqueiro possuem porte e hábitos semelhantes. Suas cores, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e o sanhaço-do-coqueiro possuem porte e hábitos semelhantes. Suas cores, 
 entretanto, os diferenciam bem. Como costumam pousar nas partes mais altas 
 da vegetação, muitas vezes são vistos contra o céu, em situações de 
 iluminação onde os contrastes desap"&amp;"arecem. Nessas situações, quando o 
 sanhaço-do-coqueiro voa mostra uma faixa clara (na verdade, amarelada) no 
 meio das ")</f>
-        <v> e o sanhaço-do-coqueiro possuem porte e hábitos semelhantes. Suas cores, 
+        <v xml:space="preserve"> e o sanhaço-do-coqueiro possuem porte e hábitos semelhantes. Suas cores, 
 entretanto, os diferenciam bem. Como costumam pousar nas partes mais altas 
 da vegetação, muitas vezes são vistos contra o céu, em situações de 
 iluminação onde os contrastes desaparecem. Nessas situações, quando o 
@@ -1902,36 +2076,36 @@
 meio das </v>
       </c>
       <c r="Q7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"penas")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"penas")</f>
         <v>penas</v>
       </c>
       <c r="R7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," longas da asa, característica marcante dessa espécie. A cor esverdeada 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," longas da asa, característica marcante dessa espécie. A cor esverdeada 
 dominante é suficiente para determiná-lo, quando as condições de luz o 
 permitem.")</f>
-        <v> longas da asa, característica marcante dessa espécie. A cor esverdeada 
+        <v xml:space="preserve"> longas da asa, característica marcante dessa espécie. A cor esverdeada 
 dominante é suficiente para determiná-lo, quando as condições de luz o 
 permitem.</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Notável também é seu vínculo com ")</f>
-        <v> Notável também é seu vínculo com </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Notável também é seu vínculo com ")</f>
+        <v xml:space="preserve"> Notável também é seu vínculo com </v>
       </c>
       <c r="U7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"palmeiras")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"palmeiras")</f>
         <v>palmeiras</v>
       </c>
       <c r="V7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". ")</f>
-        <v>. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". ")</f>
+        <v xml:space="preserve">. </v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:44" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1960,13 +2134,13 @@
         <v>16</v>
       </c>
       <c r="J8" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B8,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Espécie facilmente identificável pela coloração azul-acinzentada escura e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B8,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Espécie facilmente identificável pela coloração azul-acinzentada escura e 
 coberteiras superiores das asas amarelas, diferenciando-se bem das outras 
 espécies de sanhaços. Em alguns indivíduos, independente do sexo e da 
 distribuição geográfica, o amarel"&amp;"o das primárias estende-se por todas as 
 rêmiges, chegando até a região uropiginal. Mede cerca de 18 cm e pesa 43 
 gramas. ")</f>
-        <v> Espécie facilmente identificável pela coloração azul-acinzentada escura e 
+        <v xml:space="preserve"> Espécie facilmente identificável pela coloração azul-acinzentada escura e 
 coberteiras superiores das asas amarelas, diferenciando-se bem das outras 
 espécies de sanhaços. Em alguns indivíduos, independente do sexo e da 
 distribuição geográfica, o amarelo das primárias estende-se por todas as 
@@ -1974,11 +2148,11 @@
 gramas. </v>
       </c>
       <c r="K8" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Espécie sem dimorfismo sexual.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Espécie sem dimorfismo sexual.")</f>
         <v>Espécie sem dimorfismo sexual.</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:44" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1988,9 +2162,8 @@
       <c r="C9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C9 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/9/97/Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/9/97/Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Thraupis_cyanoptera_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg</v>
+      <c r="D9" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>49</v>
@@ -2008,13 +2181,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B9,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 18 cm de comprimento e pesa 43 g (macho). Possui corpo cheio e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B9,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 18 cm de comprimento e pesa 43 g (macho). Possui corpo cheio e 
 compacto, bico grosso, forte, ponta fina, pernas curtas e fortes com dedos 
 portando unhas aguçadas, asas e cauda longa. A coloração geral da plumagem 
 é azul-ardósia dorsalmente e azul"&amp;"-acinzentada na parte inferior, sendo mais 
 clara na garganta. No encontro das asas, a coloração azul é mais forte. A 
 coloração da fêmea é um pouco mais clara. ")</f>
-        <v> Mede 18 cm de comprimento e pesa 43 g (macho). Possui corpo cheio e 
+        <v xml:space="preserve"> Mede 18 cm de comprimento e pesa 43 g (macho). Possui corpo cheio e 
 compacto, bico grosso, forte, ponta fina, pernas curtas e fortes com dedos 
 portando unhas aguçadas, asas e cauda longa. A coloração geral da plumagem 
 é azul-ardósia dorsalmente e azul-acinzentada na parte inferior, sendo mais 
@@ -2034,7 +2207,7 @@
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:44" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
@@ -2044,9 +2217,8 @@
       <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C10 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg/280px-Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg/280px-Flickr_-_Dario_Sanches_-_SANHA%C3%87U-CINZENTO_%28Thraupis_sayaca%29_%288%29.jpg</v>
+      <c r="D10" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>55</v>
@@ -2064,22 +2236,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="13" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B10,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 16 e 19 centímetros de comprimento e pesa entre 28 e 43 gramas. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B10,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 16 e 19 centímetros de comprimento e pesa entre 28 e 43 gramas. 
 (Hilty, 2011).")</f>
-        <v> Mede entre 16 e 19 centímetros de comprimento e pesa entre 28 e 43 gramas. 
+        <v xml:space="preserve"> Mede entre 16 e 19 centímetros de comprimento e pesa entre 28 e 43 gramas. 
 (Hilty, 2011).</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O adulto de ")</f>
-        <v> O adulto de </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O adulto de ")</f>
+        <v xml:space="preserve"> O adulto de </v>
       </c>
       <c r="M10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thraupis sayaca")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thraupis sayaca")</f>
         <v>Thraupis sayaca</v>
       </c>
       <c r="N10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," apresenta coloração geral cinzenta, com as asas e cauda de coloração azul 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," apresenta coloração geral cinzenta, com as asas e cauda de coloração azul 
 turquesa. Sua cabeça é cinza com uma fina e tênue faixa pós ocular cinza 
 escuro que nem sempre está visível. Testa, coroa e nuca também cinza. Os 
 lores são cinza, da mesma color"&amp;"ação da cabeça. A coloração do manto é 
@@ -2089,7 +2261,7 @@
 u"&amp;"ropígio, assim como as penas supracaudais, são cinza azulados e as 
 retrizes são azuladas com os mesmos reflexos metálicos verdes das rêmiges. 
 A garganta, peito e ventre são cinza e o crisso é branco.")</f>
-        <v> apresenta coloração geral cinzenta, com as asas e cauda de coloração azul 
+        <v xml:space="preserve"> apresenta coloração geral cinzenta, com as asas e cauda de coloração azul 
 turquesa. Sua cabeça é cinza com uma fina e tênue faixa pós ocular cinza 
 escuro que nem sempre está visível. Testa, coroa e nuca também cinza. Os 
 lores são cinza, da mesma coloração da cabeça. A coloração do manto é 
@@ -2102,27 +2274,27 @@
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os olhos são escuros e o bico apresenta coloração cinza escuro, sendo a 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os olhos são escuros e o bico apresenta coloração cinza escuro, sendo a 
 porção proximal do bico de coloração mais clara que a porção distal. Tarsos 
 e pés são cinza.")</f>
-        <v> Os olhos são escuros e o bico apresenta coloração cinza escuro, sendo a 
+        <v xml:space="preserve"> Os olhos são escuros e o bico apresenta coloração cinza escuro, sendo a 
 porção proximal do bico de coloração mais clara que a porção distal. Tarsos 
 e pés são cinza.</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O jovem ou imaturo é similar ao adulto da espécie, entretanto sua 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O jovem ou imaturo é similar ao adulto da espécie, entretanto sua 
 coloração é mais esverdeada, mais pálida e mais opaca que este.")</f>
-        <v> O jovem ou imaturo é similar ao adulto da espécie, entretanto sua 
+        <v xml:space="preserve"> O jovem ou imaturo é similar ao adulto da espécie, entretanto sua 
 coloração é mais esverdeada, mais pálida e mais opaca que este.</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os filhotes são cinzentos e apresentam comissura labial rosada. ")</f>
-        <v> Os filhotes são cinzentos e apresentam comissura labial rosada. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os filhotes são cinzentos e apresentam comissura labial rosada. ")</f>
+        <v xml:space="preserve"> Os filhotes são cinzentos e apresentam comissura labial rosada. </v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:44" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
@@ -2151,15 +2323,15 @@
         <v>17</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B11,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 11,5 centímetros de comprimento e pesa cerca de 16,5 gramas (macho). ")</f>
-        <v> Mede 11,5 centímetros de comprimento e pesa cerca de 16,5 gramas (macho). </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B11,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 11,5 centímetros de comprimento e pesa cerca de 16,5 gramas (macho). ")</f>
+        <v xml:space="preserve"> Mede 11,5 centímetros de comprimento e pesa cerca de 16,5 gramas (macho). </v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:44" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
@@ -2169,9 +2341,8 @@
       <c r="C12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C12 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/6/66/Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg/280px-Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/6/66/Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg/280px-Ramphocelus_bresilius_-Sao_Paulo_Bagre%2C_Cananeia%2C_Sao_Paulo%2C_Brasil_-male-8.jpg</v>
+      <c r="D12" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>65</v>
@@ -2189,64 +2360,64 @@
         <v>17</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B12,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 18 e 19 centímetros de comprimento e pesa entre 27,9 e 35,5 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B12,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 18 e 19 centímetros de comprimento e pesa entre 27,9 e 35,5 
 gramas. (Hilty, 2016).")</f>
-        <v> Mede entre 18 e 19 centímetros de comprimento e pesa entre 27,9 e 35,5 
+        <v xml:space="preserve"> Mede entre 18 e 19 centímetros de comprimento e pesa entre 27,9 e 35,5 
 gramas. (Hilty, 2016).</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A plumagem do macho é de um vermelho-vivo, que deu origem ao nome. Parte 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A plumagem do macho é de um vermelho-vivo, que deu origem ao nome. Parte 
 das asas e da cauda são pretas. A espécie apresenta ")</f>
-        <v> A plumagem do macho é de um vermelho-vivo, que deu origem ao nome. Parte 
+        <v xml:space="preserve"> A plumagem do macho é de um vermelho-vivo, que deu origem ao nome. Parte 
 das asas e da cauda são pretas. A espécie apresenta </v>
       </c>
       <c r="M12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
         <v>dimorfismo sexual</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", sendo a plumagem da fêmea menos vistosa, de cor parda nas partes 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", sendo a plumagem da fêmea menos vistosa, de cor parda nas partes 
 superiores e marrom-avermelhada nas inferiores.")</f>
         <v>, sendo a plumagem da fêmea menos vistosa, de cor parda nas partes 
 superiores e marrom-avermelhada nas inferiores.</v>
       </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho imaturo é semelhante à fêmea na plumagem, mas o bico é totalmente 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho imaturo é semelhante à fêmea na plumagem, mas o bico é totalmente 
 negro e não pardo. Uma característica importante do gênero ")</f>
-        <v> O macho imaturo é semelhante à fêmea na plumagem, mas o bico é totalmente 
+        <v xml:space="preserve"> O macho imaturo é semelhante à fêmea na plumagem, mas o bico é totalmente 
 negro e não pardo. Uma característica importante do gênero </v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ramphocelus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ramphocelus")</f>
         <v>Ramphocelus</v>
       </c>
       <c r="R12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", e que ocorre exclusivamente no sexo masculino, é a calosidade branca 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", e que ocorre exclusivamente no sexo masculino, é a calosidade branca 
 reluzente na base da mandíbula.")</f>
         <v>, e que ocorre exclusivamente no sexo masculino, é a calosidade branca 
 reluzente na base da mandíbula.</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Essa espécie não é considerada entre as que possuem canto mais bonito. A ")</f>
-        <v> Essa espécie não é considerada entre as que possuem canto mais bonito. A </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Essa espécie não é considerada entre as que possuem canto mais bonito. A ")</f>
+        <v xml:space="preserve"> Essa espécie não é considerada entre as que possuem canto mais bonito. A </v>
       </c>
       <c r="U12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vocalização")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vocalização")</f>
         <v>vocalização</v>
       </c>
       <c r="V12" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de chamada (ou advertência) é muito dura. O canto é um gorjear melodioso e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de chamada (ou advertência) é muito dura. O canto é um gorjear melodioso e 
 trissilábico, que costuma ser repetido sem pressa. Às vezes, alguns 
 indivíduos vocalizam juntos. ")</f>
-        <v> de chamada (ou advertência) é muito dura. O canto é um gorjear melodioso e 
+        <v xml:space="preserve"> de chamada (ou advertência) é muito dura. O canto é um gorjear melodioso e 
 trissilábico, que costuma ser repetido sem pressa. Às vezes, alguns 
 indivíduos vocalizam juntos. </v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:44" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
@@ -2256,9 +2427,8 @@
       <c r="C13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C13 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg/280px-Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg/280px-Tachyphonus_coronatus_-Vale_do_Ribeira%2C_Sao_Paulo%2C_Registro%2C_Brasil_-male-8.jpg</v>
+      <c r="D13" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>69</v>
@@ -2276,11 +2446,11 @@
         <v>17</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B13,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Para a identificação, é útil prestar atenção no branco debaixo das asas do 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B13,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Para a identificação, é útil prestar atenção no branco debaixo das asas do 
 macho; a cristinha vermelha quase nunca é visível. O macho é 
 preto-brilhante com uma estreita faixa vermelha no alto da cabeça; a fêmea 
 é toda marrom. Mede cerca de 18 centímet"&amp;"ros. ")</f>
-        <v> Para a identificação, é útil prestar atenção no branco debaixo das asas do 
+        <v xml:space="preserve"> Para a identificação, é útil prestar atenção no branco debaixo das asas do 
 macho; a cristinha vermelha quase nunca é visível. O macho é 
 preto-brilhante com uma estreita faixa vermelha no alto da cabeça; a fêmea 
 é toda marrom. Mede cerca de 18 centímetros. </v>
@@ -2288,7 +2458,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:44" ht="15.75" customHeight="1">
       <c r="A14" s="24" t="s">
         <v>70</v>
       </c>
@@ -2317,14 +2487,14 @@
         <v>17</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B14,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 19,5 centímetros de comprimento e pesa 40 gramas.")</f>
-        <v> Mede cerca de 19,5 centímetros de comprimento e pesa 40 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B14,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 19,5 centímetros de comprimento e pesa 40 gramas.")</f>
+        <v xml:space="preserve"> Mede cerca de 19,5 centímetros de comprimento e pesa 40 gramas.</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é vermelho-amarronzado com o alto da cabeça vermelho e a fêmea é 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é vermelho-amarronzado com o alto da cabeça vermelho e a fêmea é 
 marrom-olivácea com uma pequena faixa amarela no alto da cabeça. ")</f>
-        <v> O macho é vermelho-amarronzado com o alto da cabeça vermelho e a fêmea é 
+        <v xml:space="preserve"> O macho é vermelho-amarronzado com o alto da cabeça vermelho e a fêmea é 
 marrom-olivácea com uma pequena faixa amarela no alto da cabeça. </v>
       </c>
       <c r="M14" s="17"/>
@@ -2360,7 +2530,7 @@
       <c r="AQ14" s="17"/>
       <c r="AR14" s="17"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:44" ht="15.75" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>76</v>
       </c>
@@ -2370,9 +2540,8 @@
       <c r="C15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C15 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/3/32/Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg/280px-Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/3/32/Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg/280px-Ti%C3%AA-de-topete_%28Trichothraupis_melanops%29_-_Black-goggled_Tanager.jpg</v>
+      <c r="D15" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>79</v>
@@ -2390,33 +2559,33 @@
         <v>17</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B15,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Caracteriza-se por apresentar o ")</f>
-        <v> Caracteriza-se por apresentar o </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B15,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Caracteriza-se por apresentar o ")</f>
+        <v xml:space="preserve"> Caracteriza-se por apresentar o </v>
       </c>
       <c r="K15" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
         <v>píleo</v>
       </c>
       <c r="L15" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelado contrastando com a face negra. O dorso é cinzento, com asas e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelado contrastando com a face negra. O dorso é cinzento, com asas e 
 cauda negras. A fêmea apresenta-se sem o negro na face e com pouco amarelo 
 no ")</f>
-        <v> amarelado contrastando com a face negra. O dorso é cinzento, com asas e 
+        <v xml:space="preserve"> amarelado contrastando com a face negra. O dorso é cinzento, com asas e 
 cauda negras. A fêmea apresenta-se sem o negro na face e com pouco amarelo 
 no </v>
       </c>
       <c r="M15" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
         <v>píleo</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". ")</f>
-        <v>. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". ")</f>
+        <v xml:space="preserve">. </v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:44" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
@@ -2426,9 +2595,8 @@
       <c r="C16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C16 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg/280px-Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/0/02/Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg/280px-Olive-green_Tanager_-_Itatiaia_-_Brazil_MG_1112_%2822625923163%29.jpg</v>
+      <c r="D16" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>83</v>
@@ -2446,9 +2614,9 @@
         <v>16</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B16,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 18 centímetros. Apresenta plumagem verde-olivácea uniforme, de olhos 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B16,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 18 centímetros. Apresenta plumagem verde-olivácea uniforme, de olhos 
 marrons ou cinzentos, bico escuro e pernas alaranjadas. ")</f>
-        <v> Mede 18 centímetros. Apresenta plumagem verde-olivácea uniforme, de olhos 
+        <v xml:space="preserve"> Mede 18 centímetros. Apresenta plumagem verde-olivácea uniforme, de olhos 
 marrons ou cinzentos, bico escuro e pernas alaranjadas. </v>
       </c>
       <c r="K16" s="17"/>
@@ -2458,7 +2626,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:34" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
@@ -2468,9 +2636,8 @@
       <c r="C17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C17 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/4/44/Turdus-rufiventris.jpg/330px-Turdus-rufiventris.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/4/44/Turdus-rufiventris.jpg/330px-Turdus-rufiventris.jpg</v>
+      <c r="D17" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>87</v>
@@ -2488,41 +2655,41 @@
         <v>16</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B17,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 20-25 centímetros de comprimento e o macho pesa 70 gramas e a fêmea, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B17,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 20-25 centímetros de comprimento e o macho pesa 70 gramas e a fêmea, 
 80 gramas.")</f>
-        <v> Mede 20-25 centímetros de comprimento e o macho pesa 70 gramas e a fêmea, 
+        <v xml:space="preserve"> Mede 20-25 centímetros de comprimento e o macho pesa 70 gramas e a fêmea, 
 80 gramas.</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pesando em média de 68-80 gramas. Tem ")</f>
-        <v> pesando em média de 68-80 gramas. Tem </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pesando em média de 68-80 gramas. Tem ")</f>
+        <v xml:space="preserve"> pesando em média de 68-80 gramas. Tem </v>
       </c>
       <c r="M17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
         <v>plumagem</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," parda, com exceção da região do ventre, destacada pela cor 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," parda, com exceção da região do ventre, destacada pela cor 
 vermelho-ferrugem, levemente alaranjada, e bico amarelo-escuro. Apresenta 
 anel ocular amarelo vivo e garganta clara e escura estriada. Tarsos e pés 
 rosa-cinzento.")</f>
-        <v> parda, com exceção da região do ventre, destacada pela cor 
+        <v xml:space="preserve"> parda, com exceção da região do ventre, destacada pela cor 
 vermelho-ferrugem, levemente alaranjada, e bico amarelo-escuro. Apresenta 
 anel ocular amarelo vivo e garganta clara e escura estriada. Tarsos e pés 
 rosa-cinzento.</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," É ave de ")</f>
-        <v> É ave de </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," É ave de ")</f>
+        <v xml:space="preserve"> É ave de </v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
         <v>canto</v>
       </c>
       <c r="R17" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," muito apreciado, que se assemelha ao som de uma flauta. Canta 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," muito apreciado, que se assemelha ao som de uma flauta. Canta 
 principalmente ao alvorecer e à tarde. O canto serve para demarcar 
 território e, no caso dos machos, para atrair a fêmea. A fêmea também 
 canta, mas numa frequência bem menor que o macho. O "&amp;"canto do 
@@ -2534,7 +2701,7 @@
 territoriais decrescentes e terminando em notas mais longas que no começo 
 (fi-fi-fíu-fíu-fíu-fíu-fiúu-fiúúu). Tem canto de alv"&amp;"orecer também, canta 
 nos horários de nascer do sol e pôr do sol (Tíu-wé , ou , Tiiêu-wah). ")</f>
-        <v> muito apreciado, que se assemelha ao som de uma flauta. Canta 
+        <v xml:space="preserve"> muito apreciado, que se assemelha ao som de uma flauta. Canta 
 principalmente ao alvorecer e à tarde. O canto serve para demarcar 
 território e, no caso dos machos, para atrair a fêmea. A fêmea também 
 canta, mas numa frequência bem menor que o macho. O canto do 
@@ -2548,7 +2715,7 @@
 nos horários de nascer do sol e pôr do sol (Tíu-wé , ou , Tiiêu-wah). </v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:34" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>89</v>
       </c>
@@ -2558,9 +2725,8 @@
       <c r="C18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C18 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Yellow-legged_Thrush_%2817594966420%29.jpg/280px-Yellow-legged_Thrush_%2817594966420%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Yellow-legged_Thrush_%2817594966420%29.jpg/280px-Yellow-legged_Thrush_%2817594966420%29.jpg</v>
+      <c r="D18" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>92</v>
@@ -2578,39 +2744,39 @@
         <v>17</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B18,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 20,5 centímetros de comprimento. O macho da espécie pesa 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B18,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 20,5 centímetros de comprimento. O macho da espécie pesa 
 cerca de 64 gramas e a fêmea 72 gramas.")</f>
-        <v> Mede cerca de 20,5 centímetros de comprimento. O macho da espécie pesa 
+        <v xml:space="preserve"> Mede cerca de 20,5 centímetros de comprimento. O macho da espécie pesa 
 cerca de 64 gramas e a fêmea 72 gramas.</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é preto com as costas e barriga de coloração cinza; a fêmea é 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é preto com as costas e barriga de coloração cinza; a fêmea é 
 marrom-oliváceo nas partes superiores e marrom-amarelado nas partes 
 inferiores, com a garganta estriada de marrom-escuro.")</f>
-        <v> O macho é preto com as costas e barriga de coloração cinza; a fêmea é 
+        <v xml:space="preserve"> O macho é preto com as costas e barriga de coloração cinza; a fêmea é 
 marrom-oliváceo nas partes superiores e marrom-amarelado nas partes 
 inferiores, com a garganta estriada de marrom-escuro.</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Seu ")</f>
-        <v> Seu </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Seu ")</f>
+        <v xml:space="preserve"> Seu </v>
       </c>
       <c r="O18" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
         <v>canto</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é variado, rico em motivos dos mais diversos e de duração diferente. Capaz 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é variado, rico em motivos dos mais diversos e de duração diferente. Capaz 
 de imitar outras aves. ")</f>
-        <v> é variado, rico em motivos dos mais diversos e de duração diferente. Capaz 
+        <v xml:space="preserve"> é variado, rico em motivos dos mais diversos e de duração diferente. Capaz 
 de imitar outras aves. </v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:34" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>93</v>
       </c>
@@ -2620,9 +2786,8 @@
       <c r="C19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C19 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Turdus_albicollis.jpg/330px-Turdus_albicollis.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/d/d8/Turdus_albicollis.jpg/330px-Turdus_albicollis.jpg</v>
+      <c r="D19" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>96</v>
@@ -2640,11 +2805,11 @@
         <v>17</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B19,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 22 cm de comprimento. Apresenta sutil dimorfismo sexual, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B19,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 22 cm de comprimento. Apresenta sutil dimorfismo sexual, 
 sendo as fêmeas adultas um pouco maiores que os machos, sendo sua 
 diferenciação principal feita apenas pelo canto, que é característica dos 
 machos. ")</f>
-        <v> Mede cerca de 22 cm de comprimento. Apresenta sutil dimorfismo sexual, 
+        <v xml:space="preserve"> Mede cerca de 22 cm de comprimento. Apresenta sutil dimorfismo sexual, 
 sendo as fêmeas adultas um pouco maiores que os machos, sendo sua 
 diferenciação principal feita apenas pelo canto, que é característica dos 
 machos. </v>
@@ -2652,7 +2817,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:34" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>98</v>
       </c>
@@ -2681,15 +2846,15 @@
         <v>16</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B20,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Para identificá-lo, a característica ")</f>
-        <v> Para identificá-lo, a característica </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B20,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Para identificá-lo, a característica ")</f>
+        <v xml:space="preserve"> Para identificá-lo, a característica </v>
       </c>
       <c r="K20" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mácula")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mácula")</f>
         <v>mácula</v>
       </c>
       <c r="L20" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escura, parecendo ser negra em alguns exemplares, entre o olho e o bico. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escura, parecendo ser negra em alguns exemplares, entre o olho e o bico. 
 Além disso, a cabeça é mais achatada, parecendo que o bico está no mesmo 
 plano da testa. O papo branco e os riscos variam conforme o indivíduo. 
 Algumas aves parecem ter uma gola "&amp;"branca separando os riscos do peito. Logo 
@@ -2703,7 +2868,7 @@
 reprodução. Nessa época, aparecem as aves com o bico amarelo vivo, uma 
 característica ligada à reprodução. Aves juvenis ou adultos fora do período 
 reprodutivo têm o bico escuro ou com diferentes pr"&amp;"oporções de amarelo. ")</f>
-        <v> escura, parecendo ser negra em alguns exemplares, entre o olho e o bico. 
+        <v xml:space="preserve"> escura, parecendo ser negra em alguns exemplares, entre o olho e o bico. 
 Além disso, a cabeça é mais achatada, parecendo que o bico está no mesmo 
 plano da testa. O papo branco e os riscos variam conforme o indivíduo. 
 Algumas aves parecem ter uma gola branca separando os riscos do peito. Logo 
@@ -2723,7 +2888,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:34" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>103</v>
       </c>
@@ -2752,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B21,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 22 a 23 centímetros. Não apresenta dimorfismo sexual, sendo 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B21,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 22 a 23 centímetros. Não apresenta dimorfismo sexual, sendo 
 sua diferenciação feita apenas pelo canto, que é característica dos machos. 
 O adulto apresenta o alto da cabeça arredondado, acinzentada nos lados e 
 olivácea na parte alta, sem "&amp;"a mácula negra à frente dos olhos. Bico 
@@ -2760,7 +2925,7 @@
 amarronzado nas asas. Peito acinzentado, com a garganta branca e listras 
 cinza-escuras bem definidas. Quando voa, às vezes mostra a área alar"&amp;"anjada 
 da parte interna das asas. A parte inferior da cauda é clara.")</f>
-        <v> Mede cerca de 22 a 23 centímetros. Não apresenta dimorfismo sexual, sendo 
+        <v xml:space="preserve"> Mede cerca de 22 a 23 centímetros. Não apresenta dimorfismo sexual, sendo 
 sua diferenciação feita apenas pelo canto, que é característica dos machos. 
 O adulto apresenta o alto da cabeça arredondado, acinzentada nos lados e 
 olivácea na parte alta, sem a mácula negra à frente dos olhos. Bico 
@@ -2771,9 +2936,9 @@
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O juvenil tem o dorso pintalgado de bolas amarronzadas, sem a garganta 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O juvenil tem o dorso pintalgado de bolas amarronzadas, sem a garganta 
 branca bem delimitada. Pontos marrons no peito e barriga. ")</f>
-        <v> O juvenil tem o dorso pintalgado de bolas amarronzadas, sem a garganta 
+        <v xml:space="preserve"> O juvenil tem o dorso pintalgado de bolas amarronzadas, sem a garganta 
 branca bem delimitada. Pontos marrons no peito e barriga. </v>
       </c>
       <c r="M21" s="17"/>
@@ -2784,7 +2949,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:34" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
@@ -2794,9 +2959,8 @@
       <c r="C22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C22 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/2/22/Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg/330px-Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/2/22/Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg/330px-Chiroxiphia_caudata_-Piraju%2C_Sao_Paulo%2C_Brazil_-male-8_%281%29.jpg</v>
+      <c r="D22" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>112</v>
@@ -2814,13 +2978,13 @@
         <v>17</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B22,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui cerca de 13 centímetros e apresenta forte dimorfismo sexual. Os 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B22,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui cerca de 13 centímetros e apresenta forte dimorfismo sexual. Os 
 machos têm plumagem azul-celeste, cauda preta com duas penas centrais mais 
 longas que as outras e, no alto da cabeça, uma brilhante coroa vermelha. Os 
 mais jovens são verde-oliva, "&amp;"diferindo das fêmeas pela coroa vermelha que 
 nasce antes da mudança das plumas no restante do corpo; só atingem a 
 plumagem adulta com dois anos de idade. ")</f>
-        <v> Possui cerca de 13 centímetros e apresenta forte dimorfismo sexual. Os 
+        <v xml:space="preserve"> Possui cerca de 13 centímetros e apresenta forte dimorfismo sexual. Os 
 machos têm plumagem azul-celeste, cauda preta com duas penas centrais mais 
 longas que as outras e, no alto da cabeça, uma brilhante coroa vermelha. Os 
 mais jovens são verde-oliva, diferindo das fêmeas pela coroa vermelha que 
@@ -2836,7 +3000,7 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:34" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -2865,10 +3029,10 @@
         <v>17</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B23,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 11 centímetros de comprimento. Tais aves possuem a garganta 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B23,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 11 centímetros de comprimento. Tais aves possuem a garganta 
 e o dorso negros, uropígio e lado ventral amarelos, e um característico 
 capacete azul. As fêmeas são esverdeadas. ")</f>
-        <v> Mede cerca de 11 centímetros de comprimento. Tais aves possuem a garganta 
+        <v xml:space="preserve"> Mede cerca de 11 centímetros de comprimento. Tais aves possuem a garganta 
 e o dorso negros, uropígio e lado ventral amarelos, e um característico 
 capacete azul. As fêmeas são esverdeadas. </v>
       </c>
@@ -2879,7 +3043,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:34" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>120</v>
       </c>
@@ -2889,9 +3053,8 @@
       <c r="C24" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C24 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/7/76/ALMA-DE-GATO_%28Piaya_cayana%29.jpg/280px-ALMA-DE-GATO_%28Piaya_cayana%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/7/76/ALMA-DE-GATO_%28Piaya_cayana%29.jpg/280px-ALMA-DE-GATO_%28Piaya_cayana%29.jpg</v>
+      <c r="D24" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>123</v>
@@ -2909,26 +3072,26 @@
         <v>16</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B24,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Apresenta plumagem ferrugínea nas partes superiores, peito acinzentado, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B24,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Apresenta plumagem ferrugínea nas partes superiores, peito acinzentado, 
 ventre escuro, cauda longa, escura e com as pontas das ")</f>
-        <v> Apresenta plumagem ferrugínea nas partes superiores, peito acinzentado, 
+        <v xml:space="preserve"> Apresenta plumagem ferrugínea nas partes superiores, peito acinzentado, 
 ventre escuro, cauda longa, escura e com as pontas das </v>
       </c>
       <c r="K24" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
         <v>retrizes</v>
       </c>
       <c r="L24" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," claras, ")</f>
-        <v> claras, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," claras, ")</f>
+        <v xml:space="preserve"> claras, </v>
       </c>
       <c r="M24" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
         <v>bico</v>
       </c>
       <c r="N24" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelo e íris vermelha. ")</f>
-        <v> amarelo e íris vermelha. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelo e íris vermelha. ")</f>
+        <v xml:space="preserve"> amarelo e íris vermelha. </v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
@@ -2945,7 +3108,7 @@
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:34" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>125</v>
       </c>
@@ -2955,9 +3118,8 @@
       <c r="C25" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C25 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/8/88/Trogon_surrucura_brazil.jpg/280px-Trogon_surrucura_brazil.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/8/88/Trogon_surrucura_brazil.jpg/280px-Trogon_surrucura_brazil.jpg</v>
+      <c r="D25" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>128</v>
@@ -2975,24 +3137,24 @@
         <v>17</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B25,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 26 e 28 centímetros e pesa entre 70 e 78 gramas. É um pássaro 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B25,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 26 e 28 centímetros e pesa entre 70 e 78 gramas. É um pássaro 
 quieto que passa longos períodos de descanso em um poleiro, e seu canto 
 pode ser ouvido durante todo o dia.")</f>
-        <v> Mede entre 26 e 28 centímetros e pesa entre 70 e 78 gramas. É um pássaro 
+        <v xml:space="preserve"> Mede entre 26 e 28 centímetros e pesa entre 70 e 78 gramas. É um pássaro 
 quieto que passa longos períodos de descanso em um poleiro, e seu canto 
 pode ser ouvido durante todo o dia.</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A variedade nominal ")</f>
-        <v> A variedade nominal </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A variedade nominal ")</f>
+        <v xml:space="preserve"> A variedade nominal </v>
       </c>
       <c r="M25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon surrucura surrucura")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon surrucura surrucura")</f>
         <v>Trogon surrucura surrucura</v>
       </c>
       <c r="N25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," apresenta a cabeça, pescoço e peito na coloração azul escuro metálico e as 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," apresenta a cabeça, pescoço e peito na coloração azul escuro metálico e as 
 bochechas e garganta na cor preta. Apresenta os olhos na cor marrom escuro 
 com um anel periocular na cor laranja intenso. O bico é curto e robusto, na 
 cor marfim manchado com t"&amp;"ons cinza esverdeados. A mandíbula inferior 
@@ -3008,7 +3170,7 @@
 os pés, são acinzentadas. Possuem dedo"&amp;"s bastante específicos que lhe 
 permitem agarrar firmemente os ramos em que ficam empoleirados. Os dois 
 primeiros dedos são orientados para trás e os outros dois para a frente.")</f>
-        <v> apresenta a cabeça, pescoço e peito na coloração azul escuro metálico e as 
+        <v xml:space="preserve"> apresenta a cabeça, pescoço e peito na coloração azul escuro metálico e as 
 bochechas e garganta na cor preta. Apresenta os olhos na cor marrom escuro 
 com um anel periocular na cor laranja intenso. O bico é curto e robusto, na 
 cor marfim manchado com tons cinza esverdeados. A mandíbula inferior 
@@ -3027,59 +3189,59 @@
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A variedade ")</f>
-        <v> A variedade </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A variedade ")</f>
+        <v xml:space="preserve"> A variedade </v>
       </c>
       <c r="Q25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon surrucura aurantius")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon surrucura aurantius")</f>
         <v>Trogon surrucura aurantius</v>
       </c>
       <c r="R25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," difere da variedade nominal pois dentre outras características apresenta o 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," difere da variedade nominal pois dentre outras características apresenta o 
 ventre amarelo e o anel periocular do macho na cor amarelo alaranjado.")</f>
-        <v> difere da variedade nominal pois dentre outras características apresenta o 
+        <v xml:space="preserve"> difere da variedade nominal pois dentre outras características apresenta o 
 ventre amarelo e o anel periocular do macho na cor amarelo alaranjado.</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea da espécie apresenta o anel perioftálmico branco. A plumagem da 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea da espécie apresenta o anel perioftálmico branco. A plumagem da 
 fêmea é cinza opaco com pequenas barras pretas nas asas. O ventre e crisso 
 é vermelho rosado (variedade ")</f>
-        <v> A fêmea da espécie apresenta o anel perioftálmico branco. A plumagem da 
+        <v xml:space="preserve"> A fêmea da espécie apresenta o anel perioftálmico branco. A plumagem da 
 fêmea é cinza opaco com pequenas barras pretas nas asas. O ventre e crisso 
 é vermelho rosado (variedade </v>
       </c>
       <c r="U25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"surrucura")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"surrucura")</f>
         <v>surrucura</v>
       </c>
       <c r="V25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e para a variedade ")</f>
-        <v>) e para a variedade </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e para a variedade ")</f>
+        <v xml:space="preserve">) e para a variedade </v>
       </c>
       <c r="W25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"auratius")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"auratius")</f>
         <v>auratius</v>
       </c>
       <c r="X25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é amarelo. A cauda é cinza, da mesma coloração do dorso, e apresentam na 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é amarelo. A cauda é cinza, da mesma coloração do dorso, e apresentam na 
 porção terminal uma barra preta. Abaixo da cauda cinza apresentando as 
 bordas brancas.")</f>
-        <v> é amarelo. A cauda é cinza, da mesma coloração do dorso, e apresentam na 
+        <v xml:space="preserve"> é amarelo. A cauda é cinza, da mesma coloração do dorso, e apresentam na 
 porção terminal uma barra preta. Abaixo da cauda cinza apresentando as 
 bordas brancas.</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Juvenis apresentam a plumagem semelhante à das fêmeas. Na transição para a 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Juvenis apresentam a plumagem semelhante à das fêmeas. Na transição para a 
 fase adulta os juvenis machos apresentam a coloração azul esverdeada e 
 preta do dorso, cabeça, garganta e peito incipiente e inconstante. ")</f>
-        <v> Juvenis apresentam a plumagem semelhante à das fêmeas. Na transição para a 
+        <v xml:space="preserve"> Juvenis apresentam a plumagem semelhante à das fêmeas. Na transição para a 
 fase adulta os juvenis machos apresentam a coloração azul esverdeada e 
 preta do dorso, cabeça, garganta e peito incipiente e inconstante. </v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:34" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>130</v>
       </c>
@@ -3089,9 +3251,8 @@
       <c r="C26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C26 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/53/Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg/280px-Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/53/Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg/280px-Trogon_viridis_%28Green-backed_Trogon%29%2C_male%2C_Restinga_de_Bertioga_-_SP_-_Brasil.jpg</v>
+      <c r="D26" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>133</v>
@@ -3109,15 +3270,15 @@
         <v>17</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B26,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 30 centímetros de comprimento e pesa 93 gramas. Apresenta ")</f>
-        <v> Mede cerca de 30 centímetros de comprimento e pesa 93 gramas. Apresenta </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B26,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 30 centímetros de comprimento e pesa 93 gramas. Apresenta ")</f>
+        <v xml:space="preserve"> Mede cerca de 30 centímetros de comprimento e pesa 93 gramas. Apresenta </v>
       </c>
       <c r="K26" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
         <v>dimorfismo sexual</v>
       </c>
       <c r="L26" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". O macho tem o bico cinza azulado. Os olhos são escuros de coloração 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". O macho tem o bico cinza azulado. Os olhos são escuros de coloração 
 marrom e apresentam um claro anel periocular de coloração azul. As regiões 
 auriculares são pretas. A garganta e a porção superior do peito são pretos 
 e as partes laterais do peito ap"&amp;"resentam uma coloração azul escuro 
@@ -3159,17 +3320,17 @@
 muito parecidas com as fêmeas de surucuá-violáceo (</v>
       </c>
       <c r="M26" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon violaceus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Trogon violaceus")</f>
         <v>Trogon violaceus</v>
       </c>
       <c r="N26" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e podem ser diferenciadas pelo maior tamanho do corpo e pelo anel ocular 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e podem ser diferenciadas pelo maior tamanho do corpo e pelo anel ocular 
 de formato redondo, e não ovalado como naquele. ")</f>
-        <v>) e podem ser diferenciadas pelo maior tamanho do corpo e pelo anel ocular 
+        <v xml:space="preserve">) e podem ser diferenciadas pelo maior tamanho do corpo e pelo anel ocular 
 de formato redondo, e não ovalado como naquele. </v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:34" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>135</v>
       </c>
@@ -3179,9 +3340,8 @@
       <c r="C27" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C27 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Tiriba-de-testa-vermelha.jpg/280px-Tiriba-de-testa-vermelha.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Tiriba-de-testa-vermelha.jpg/280px-Tiriba-de-testa-vermelha.jpg</v>
+      <c r="D27" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>138</v>
@@ -3199,34 +3359,34 @@
         <v>16</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B27,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 24 e 28 centímetros de comprimento e pesa entre 72 e 94 gramas.")</f>
-        <v> Mede entre 24 e 28 centímetros de comprimento e pesa entre 72 e 94 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B27,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 24 e 28 centímetros de comprimento e pesa entre 72 e 94 gramas.")</f>
+        <v xml:space="preserve"> Mede entre 24 e 28 centímetros de comprimento e pesa entre 72 e 94 gramas.</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," É verde, inclusive nas bochechas, com a zona auricular pardacenta. Fronte, ")</f>
-        <v> É verde, inclusive nas bochechas, com a zona auricular pardacenta. Fronte, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," É verde, inclusive nas bochechas, com a zona auricular pardacenta. Fronte, ")</f>
+        <v xml:space="preserve"> É verde, inclusive nas bochechas, com a zona auricular pardacenta. Fronte, </v>
       </c>
       <c r="M27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"abdômen")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"abdômen")</f>
         <v>abdômen</v>
       </c>
       <c r="N27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e face inferior da cauda de cor vermelha. ")</f>
-        <v> e face inferior da cauda de cor vermelha. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e face inferior da cauda de cor vermelha. ")</f>
+        <v xml:space="preserve"> e face inferior da cauda de cor vermelha. </v>
       </c>
       <c r="O27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Região perioftálmica")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Região perioftálmica")</f>
         <v>Região perioftálmica</v>
       </c>
       <c r="P27" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," branca, assim como a cara. Não possui diferenças externas aparentes entre 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," branca, assim como a cara. Não possui diferenças externas aparentes entre 
 machos e fêmeas. ")</f>
-        <v> branca, assim como a cara. Não possui diferenças externas aparentes entre 
+        <v xml:space="preserve"> branca, assim como a cara. Não possui diferenças externas aparentes entre 
 machos e fêmeas. </v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:34" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>139</v>
       </c>
@@ -3255,29 +3415,29 @@
         <v>16</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B28,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 21 cm. A coloração básica da plumagem é verde. As partes inferiores e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B28,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 21 cm. A coloração básica da plumagem é verde. As partes inferiores e 
 laterais da ")</f>
-        <v> Mede 21 cm. A coloração básica da plumagem é verde. As partes inferiores e 
+        <v xml:space="preserve"> Mede 21 cm. A coloração básica da plumagem é verde. As partes inferiores e 
 laterais da </v>
       </c>
       <c r="K28" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
         <v>cabeça</v>
       </c>
       <c r="L28" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", peito e abdômen são de um verde com tons amarelados. A parte traseira da 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", peito e abdômen são de um verde com tons amarelados. A parte traseira da 
 cabeça, a nuca, é de um verde levemente azulado. A base das asas é de um 
 marrom oliváceo. A ")</f>
-        <v>, peito e abdômen são de um verde com tons amarelados. A parte traseira da 
+        <v xml:space="preserve">, peito e abdômen são de um verde com tons amarelados. A parte traseira da 
 cabeça, a nuca, é de um verde levemente azulado. A base das asas é de um 
 marrom oliváceo. A </v>
       </c>
       <c r="M28" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cobertura")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cobertura")</f>
         <v>cobertura</v>
       </c>
       <c r="N28" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de pluma da base das asas é de um marrom oliváceo e as penas exteriores 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de pluma da base das asas é de um marrom oliváceo e as penas exteriores 
 são de um azul-violeta. O bico é amarronzado, mais claro no topo. As 
 narinas ficam na base do bico. O anel perioftálmico é de um cinza pálido. A 
 íris é de um marrom-escuro, com a "&amp;"pupila de cor negra. Os pés são de cor 
@@ -3285,7 +3445,7 @@
 coloração verde-azuladas. Os exemplares imaturos são semelhantes aos 
 adultos, mas com quase toda plumagem primária esverdeada, cauda curta e 
 "&amp;"bico mais escuro. ")</f>
-        <v> de pluma da base das asas é de um marrom oliváceo e as penas exteriores 
+        <v xml:space="preserve"> de pluma da base das asas é de um marrom oliváceo e as penas exteriores 
 são de um azul-violeta. O bico é amarronzado, mais claro no topo. As 
 narinas ficam na base do bico. O anel perioftálmico é de um cinza pálido. A 
 íris é de um marrom-escuro, com a pupila de cor negra. Os pés são de cor 
@@ -3300,7 +3460,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:34" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>144</v>
       </c>
@@ -3310,9 +3470,8 @@
       <c r="C29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C29 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/4/49/Amazona_farinosa_at_Jungle_Island-4c.jpg/330px-Amazona_farinosa_at_Jungle_Island-4c.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/4/49/Amazona_farinosa_at_Jungle_Island-4c.jpg/330px-Amazona_farinosa_at_Jungle_Island-4c.jpg</v>
+      <c r="D29" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>147</v>
@@ -3330,47 +3489,47 @@
         <v>16</v>
       </c>
       <c r="J29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B29,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É a maior ")</f>
-        <v> É a maior </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B29,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É a maior ")</f>
+        <v xml:space="preserve"> É a maior </v>
       </c>
       <c r="K29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"espécie")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"espécie")</f>
         <v>espécie</v>
       </c>
       <c r="L29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do gênero, medindo cerca de 40 cm de comprimento. Possui plumagem verde, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do gênero, medindo cerca de 40 cm de comprimento. Possui plumagem verde, 
 coberta por um pó branco muito fino (")</f>
-        <v> do gênero, medindo cerca de 40 cm de comprimento. Possui plumagem verde, 
+        <v xml:space="preserve"> do gênero, medindo cerca de 40 cm de comprimento. Possui plumagem verde, 
 coberta por um pó branco muito fino (</v>
       </c>
       <c r="M29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"farinosa")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"farinosa")</f>
         <v>farinosa</v>
       </c>
       <c r="N29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," - origem de seu nome científico), ")</f>
-        <v> - origem de seu nome científico), </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," - origem de seu nome científico), ")</f>
+        <v xml:space="preserve"> - origem de seu nome científico), </v>
       </c>
       <c r="O29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boné")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boné")</f>
         <v>boné</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," geralmente amarelo, azul e vermelho, ")</f>
-        <v> geralmente amarelo, azul e vermelho, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," geralmente amarelo, azul e vermelho, ")</f>
+        <v xml:space="preserve"> geralmente amarelo, azul e vermelho, </v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
         <v>bico</v>
       </c>
       <c r="R29" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e anel perioftálmico brancos, espelho alar vermelho e cauda longa com 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e anel perioftálmico brancos, espelho alar vermelho e cauda longa com 
 extremidade verde-clara. Muito parecido com seu parente o 
 papagaio-campeiro, difere deste pela íris mais escura, a ausência de 
 vermelho na base das penas da cauda e uma área amarela"&amp;" menor na coroa. 
 Também possui menos vermelho no espelho, característica mais visível em 
 voo. ")</f>
-        <v> e anel perioftálmico brancos, espelho alar vermelho e cauda longa com 
+        <v xml:space="preserve"> e anel perioftálmico brancos, espelho alar vermelho e cauda longa com 
 extremidade verde-clara. Muito parecido com seu parente o 
 papagaio-campeiro, difere deste pela íris mais escura, a ausência de 
 vermelho na base das penas da cauda e uma área amarela menor na coroa. 
@@ -3378,7 +3537,7 @@
 voo. </v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:34" ht="15.75" customHeight="1">
       <c r="A30" s="25" t="s">
         <v>148</v>
       </c>
@@ -3407,7 +3566,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B30,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tamanho aproximado: 13,5 centímetros. Peso médio: 20 gramas. Cor 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B30,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tamanho aproximado: 13,5 centímetros. Peso médio: 20 gramas. Cor 
 amarelo-olivácea com estrias enegrecidas nas costas e próximo das pernas. 
 Asas e cauda cinza-oliva. A íris é negra e o bico tem a parte superior cor 
 de chifre e a inferior é amarelada. A"&amp;"s pernas são rosadas. A fêmea e o 
@@ -3416,7 +3575,7 @@
 quando adulto, assume a coloração amarela. Com 4 a 6 meses de idade, "&amp;"os 
 filhotes machos já estão cantando, e levam cerca de 18 meses para adquirir 
 a plumagem de adulto. ")</f>
-        <v> Tamanho aproximado: 13,5 centímetros. Peso médio: 20 gramas. Cor 
+        <v xml:space="preserve"> Tamanho aproximado: 13,5 centímetros. Peso médio: 20 gramas. Cor 
 amarelo-olivácea com estrias enegrecidas nas costas e próximo das pernas. 
 Asas e cauda cinza-oliva. A íris é negra e o bico tem a parte superior cor 
 de chifre e a inferior é amarelada. As pernas são rosadas. A fêmea e o 
@@ -3431,7 +3590,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:34" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>154</v>
       </c>
@@ -3441,9 +3600,8 @@
       <c r="C31" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C31 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/10/Waxbill_on_coin%2C_Ascension_Island.JPG/330px-Waxbill_on_coin%2C_Ascension_Island.JPG")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/10/Waxbill_on_coin%2C_Ascension_Island.JPG/330px-Waxbill_on_coin%2C_Ascension_Island.JPG</v>
+      <c r="D31" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>157</v>
@@ -3461,90 +3619,90 @@
         <v>17</v>
       </c>
       <c r="J31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B31,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 10-13 centímetros de comprimento e pesa 7-10 gramas.")</f>
-        <v> Mede cerca de 10-13 centímetros de comprimento e pesa 7-10 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B31,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 10-13 centímetros de comprimento e pesa 7-10 gramas.")</f>
+        <v xml:space="preserve"> Mede cerca de 10-13 centímetros de comprimento e pesa 7-10 gramas.</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ambos os sexos são parecidos, possuindo ")</f>
-        <v> Ambos os sexos são parecidos, possuindo </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ambos os sexos são parecidos, possuindo ")</f>
+        <v xml:space="preserve"> Ambos os sexos são parecidos, possuindo </v>
       </c>
       <c r="M31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"crisso")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"crisso")</f>
         <v>crisso</v>
       </c>
       <c r="N31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e ")</f>
-        <v> e </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e ")</f>
+        <v xml:space="preserve"> e </v>
       </c>
       <c r="O31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coberteiras")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coberteiras")</f>
         <v>coberteiras</v>
       </c>
       <c r="P31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," inferiores da ")</f>
-        <v> inferiores da </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," inferiores da ")</f>
+        <v xml:space="preserve"> inferiores da </v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cauda")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cauda")</f>
         <v>cauda</v>
       </c>
       <c r="R31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," negros no macho e pardo escuros nas fêmeas.")</f>
-        <v> negros no macho e pardo escuros nas fêmeas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," negros no macho e pardo escuros nas fêmeas.")</f>
+        <v xml:space="preserve"> negros no macho e pardo escuros nas fêmeas.</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Jovens ")</f>
-        <v> Jovens </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Jovens ")</f>
+        <v xml:space="preserve"> Jovens </v>
       </c>
       <c r="U31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"imaturos")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"imaturos")</f>
         <v>imaturos</v>
       </c>
       <c r="V31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," possuem o bico negro além de uma pequena comissura labial branco 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," possuem o bico negro além de uma pequena comissura labial branco 
 reluzente. Quase não possuem a ondulação e o vermelho intenso da ")</f>
-        <v> possuem o bico negro além de uma pequena comissura labial branco 
+        <v xml:space="preserve"> possuem o bico negro além de uma pequena comissura labial branco 
 reluzente. Quase não possuem a ondulação e o vermelho intenso da </v>
       </c>
       <c r="W31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
         <v>plumagem</v>
       </c>
       <c r="X31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do adulto.")</f>
-        <v> do adulto.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do adulto.")</f>
+        <v xml:space="preserve"> do adulto.</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O distintivo morfológico mais proeminente nos filhotes são as 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O distintivo morfológico mais proeminente nos filhotes são as 
 protuberâncias branco-resplandescentes na base da ")</f>
-        <v> O distintivo morfológico mais proeminente nos filhotes são as 
+        <v xml:space="preserve"> O distintivo morfológico mais proeminente nos filhotes são as 
 protuberâncias branco-resplandescentes na base da </v>
       </c>
       <c r="AA31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxila")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxila")</f>
         <v>maxila</v>
       </c>
       <c r="AB31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e da ")</f>
-        <v> e da </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e da ")</f>
+        <v xml:space="preserve"> e da </v>
       </c>
       <c r="AC31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mandíbula")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mandíbula")</f>
         <v>mandíbula</v>
       </c>
       <c r="AD31" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", que refletem a luz, aparecendo como fosforescentes no interior escuro do 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", que refletem a luz, aparecendo como fosforescentes no interior escuro do 
 ninho e orientando os pais para a alimentação. Essas protuberâncias secam 
 depois que os filhotes deixam o ninho, mas permanecem no desenho da boca. ")</f>
-        <v>, que refletem a luz, aparecendo como fosforescentes no interior escuro do 
+        <v xml:space="preserve">, que refletem a luz, aparecendo como fosforescentes no interior escuro do 
 ninho e orientando os pais para a alimentação. Essas protuberâncias secam 
 depois que os filhotes deixam o ninho, mas permanecem no desenho da boca. </v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:34" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>159</v>
       </c>
@@ -3554,9 +3712,8 @@
       <c r="C32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C32 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Pitangus_sulphuratus_3.jpg/330px-Pitangus_sulphuratus_3.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Pitangus_sulphuratus_3.jpg/330px-Pitangus_sulphuratus_3.jpg</v>
+      <c r="D32" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>162</v>
@@ -3574,14 +3731,14 @@
         <v>16</v>
       </c>
       <c r="J32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B32,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Ave de médio porte, o bem-te-vi ou bem-te-vi verdadeiro mede entre 20,5 e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B32,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Ave de médio porte, o bem-te-vi ou bem-te-vi verdadeiro mede entre 20,5 e 
 25 centímetros de comprimento e pesa aproximadamente de 52-68 g. Tem o 
 dorso pardo e a barriga de um amarelo vivo; uma listra (sobrancelha) branca 
 no alto da cabeça, acima dos o"&amp;"lhos; cauda preta. O bico é preto, achatado, 
 longo, resistente e um pouco encurvado. A garganta (zona logo abaixo do 
 bico) é de cor branca. Possui um topete amarelo somente visível quando a 
 ave o eriça em determinadas situações.")</f>
-        <v> Ave de médio porte, o bem-te-vi ou bem-te-vi verdadeiro mede entre 20,5 e 
+        <v xml:space="preserve"> Ave de médio porte, o bem-te-vi ou bem-te-vi verdadeiro mede entre 20,5 e 
 25 centímetros de comprimento e pesa aproximadamente de 52-68 g. Tem o 
 dorso pardo e a barriga de um amarelo vivo; uma listra (sobrancelha) branca 
 no alto da cabeça, acima dos olhos; cauda preta. O bico é preto, achatado, 
@@ -3591,108 +3748,108 @@
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O seu canto trissilábico característico lembra as sílabas bem-te-vi, que 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O seu canto trissilábico característico lembra as sílabas bem-te-vi, que 
 dão o nome à espécie. Portanto, seu nome popular possui origem onomatopeica.")</f>
-        <v> O seu canto trissilábico característico lembra as sílabas bem-te-vi, que 
+        <v xml:space="preserve"> O seu canto trissilábico característico lembra as sílabas bem-te-vi, que 
 dão o nome à espécie. Portanto, seu nome popular possui origem onomatopeica.</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Existem várias espécies de tiranídeos com o mesmo padrão de cores, dentre 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Existem várias espécies de tiranídeos com o mesmo padrão de cores, dentre 
 as quais 4 são particularmente similares ao bem-te-vi: o ")</f>
-        <v> Existem várias espécies de tiranídeos com o mesmo padrão de cores, dentre 
+        <v xml:space="preserve"> Existem várias espécies de tiranídeos com o mesmo padrão de cores, dentre 
 as quais 4 são particularmente similares ao bem-te-vi: o </v>
       </c>
       <c r="O32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"neinei")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"neinei")</f>
         <v>neinei</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="Q32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Megarynchus pitangua")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Megarynchus pitangua")</f>
         <v>Megarynchus pitangua</v>
       </c>
       <c r="R32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), o ")</f>
-        <v>), o </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), o ")</f>
+        <v xml:space="preserve">), o </v>
       </c>
       <c r="S32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-do-brejo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-do-brejo")</f>
         <v>bentevizinho-do-brejo</v>
       </c>
       <c r="T32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="U32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Philohydor lictor")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Philohydor lictor")</f>
         <v>Philohydor lictor</v>
       </c>
       <c r="V32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), e os dois bentevizinhos do gênero Myiozetetes, o ")</f>
-        <v>), e os dois bentevizinhos do gênero Myiozetetes, o </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), e os dois bentevizinhos do gênero Myiozetetes, o ")</f>
+        <v xml:space="preserve">), e os dois bentevizinhos do gênero Myiozetetes, o </v>
       </c>
       <c r="W32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-penacho-vermelho")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-penacho-vermelho")</f>
         <v>bentevizinho-de-penacho-vermelho</v>
       </c>
       <c r="X32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="Y32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myiozetetes similis")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myiozetetes similis")</f>
         <v>Myiozetetes similis</v>
       </c>
       <c r="Z32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e o ")</f>
-        <v>) e o </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") e o ")</f>
+        <v xml:space="preserve">) e o </v>
       </c>
       <c r="AA32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-asa-ferruginea")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-asa-ferruginea")</f>
         <v>bentevizinho-de-asa-ferruginea</v>
       </c>
       <c r="AB32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="AC32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myiozetetes cayanensis")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Myiozetetes cayanensis")</f>
         <v>Myiozetetes cayanensis</v>
       </c>
       <c r="AD32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). O ")</f>
-        <v>). O </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). O ")</f>
+        <v xml:space="preserve">). O </v>
       </c>
       <c r="AE32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"neinei")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"neinei")</f>
         <v>neinei</v>
       </c>
       <c r="AF32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é do mesmo tamanho do bem-te-vi, mas possui um bico maior e bem mais 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é do mesmo tamanho do bem-te-vi, mas possui um bico maior e bem mais 
 largo, o ")</f>
-        <v> é do mesmo tamanho do bem-te-vi, mas possui um bico maior e bem mais 
+        <v xml:space="preserve"> é do mesmo tamanho do bem-te-vi, mas possui um bico maior e bem mais 
 largo, o </v>
       </c>
       <c r="AG32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-do-brejo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-do-brejo")</f>
         <v>bentevizinho-do-brejo</v>
       </c>
       <c r="AH32" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é mais esbelto, menor e apresenta o bico proporcionalmente mais afinado 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é mais esbelto, menor e apresenta o bico proporcionalmente mais afinado 
 achatado. Já os bentevizinhos do gênero Myiozetetes são menores, possuem o 
 bico cônico e proporcionalmente menor e as sobrancelhas brancas menos 
 definidas. ")</f>
-        <v> é mais esbelto, menor e apresenta o bico proporcionalmente mais afinado 
+        <v xml:space="preserve"> é mais esbelto, menor e apresenta o bico proporcionalmente mais afinado 
 achatado. Já os bentevizinhos do gênero Myiozetetes são menores, possuem o 
 bico cônico e proporcionalmente menor e as sobrancelhas brancas menos 
 definidas. </v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:44" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>164</v>
       </c>
@@ -3702,9 +3859,8 @@
       <c r="C33" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C33 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Piratic_Flycatcher.jpg/280px-Piratic_Flycatcher.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Piratic_Flycatcher.jpg/280px-Piratic_Flycatcher.jpg</v>
+      <c r="D33" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>167</v>
@@ -3722,20 +3878,20 @@
         <v>16</v>
       </c>
       <c r="J33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B33,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 14,5 e 17 centímetros de comprimento e pesa entre 19 e 26 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B33,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 14,5 e 17 centímetros de comprimento e pesa entre 19 e 26 
 gramas.")</f>
-        <v> Mede entre 14,5 e 17 centímetros de comprimento e pesa entre 19 e 26 
+        <v xml:space="preserve"> Mede entre 14,5 e 17 centímetros de comprimento e pesa entre 19 e 26 
 gramas.</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta a testa e a coroa esbranquiçadas, o píleo amarelo nem sempre 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta a testa e a coroa esbranquiçadas, o píleo amarelo nem sempre 
 visível, ampla faixa transocular escura. Estria malar escura. O ventre é 
 esbranquiçado com estrias acinzentadas, podendo apresentar coloração 
 amarela suave nos flancos. Crisso estr"&amp;"iado. Porção superior do corpo 
 acinzentada. Manto cinzento uniforme. Rêmiges cinzentas com a borda 
 esbranquiçada. Retrizes cinzentas.")</f>
-        <v> Apresenta a testa e a coroa esbranquiçadas, o píleo amarelo nem sempre 
+        <v xml:space="preserve"> Apresenta a testa e a coroa esbranquiçadas, o píleo amarelo nem sempre 
 visível, ampla faixa transocular escura. Estria malar escura. O ventre é 
 esbranquiçado com estrias acinzentadas, podendo apresentar coloração 
 amarela suave nos flancos. Crisso estriado. Porção superior do corpo 
@@ -3744,39 +3900,39 @@
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Olhos, bicos escuros. Tarsos e pés cinzentos.")</f>
-        <v> Olhos, bicos escuros. Tarsos e pés cinzentos.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Olhos, bicos escuros. Tarsos e pés cinzentos.")</f>
+        <v xml:space="preserve"> Olhos, bicos escuros. Tarsos e pés cinzentos.</v>
       </c>
       <c r="O33" s="17"/>
       <c r="P33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O menor dos “bem-te-vis rajados”, no período reprodutivo vocaliza 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O menor dos “bem-te-vis rajados”, no período reprodutivo vocaliza 
 praticamente o dia todo em locais expostos e torna-se notável. Em 
 comparação com o ")</f>
-        <v> O menor dos “bem-te-vis rajados”, no período reprodutivo vocaliza 
+        <v xml:space="preserve"> O menor dos “bem-te-vis rajados”, no período reprodutivo vocaliza 
 praticamente o dia todo em locais expostos e torna-se notável. Em 
 comparação com o </v>
       </c>
       <c r="Q33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"peitica")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"peitica")</f>
         <v>peitica</v>
       </c>
       <c r="R33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="S33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Empidonomus varius")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Empidonomus varius")</f>
         <v>Empidonomus varius</v>
       </c>
       <c r="T33" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), o bico é menor e a cauda mais curta, conferindo um aspecto mais 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"), o bico é menor e a cauda mais curta, conferindo um aspecto mais 
 atarracado ao bem-te-vi-pirata. Sob excelentes condições, é possível 
 observar que falta a esse a borda castanha da parte superior das penas da 
 cauda daquele. Entretanto, como sempre os "&amp;"vemos contra o céu, as 
 características comportamentais são grandes auxiliares. O nome pirata vem 
 do hábito de tomarem ninhos construídos por outras espécies para 
 reproduzirem. ")</f>
-        <v>), o bico é menor e a cauda mais curta, conferindo um aspecto mais 
+        <v xml:space="preserve">), o bico é menor e a cauda mais curta, conferindo um aspecto mais 
 atarracado ao bem-te-vi-pirata. Sob excelentes condições, é possível 
 observar que falta a esse a borda castanha da parte superior das penas da 
 cauda daquele. Entretanto, como sempre os vemos contra o céu, as 
@@ -3785,7 +3941,7 @@
 reproduzirem. </v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:44" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>168</v>
       </c>
@@ -3814,14 +3970,14 @@
         <v>16</v>
       </c>
       <c r="J34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B34,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 16 e 18,5 centímetros de comprimento e pesa entre 24 e 27 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B34,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 16 e 18,5 centímetros de comprimento e pesa entre 24 e 27 
 gramas. Espécie sem dimorfismo sexual aparente. ")</f>
-        <v> Mede entre 16 e 18,5 centímetros de comprimento e pesa entre 24 e 27 
+        <v xml:space="preserve"> Mede entre 16 e 18,5 centímetros de comprimento e pesa entre 24 e 27 
 gramas. Espécie sem dimorfismo sexual aparente. </v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ave com a aparência geral desbotada. Apresenta o píleo marrom escuro 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ave com a aparência geral desbotada. Apresenta o píleo marrom escuro 
 fuliginoso com uma grande mancha central quase sempre oculta, de coloração 
 vermelho vibrante. Uma larga faixa superciliar branca com os dois lados 
 opostos confluentes na testa e não "&amp;"confluentes na nuca. As regiões lorais e 
@@ -3840,7 +3996,7 @@
 de intensidade variável, sobre fundo amarelo-pálido. As demais partes 
 inferiores, incluindo axilares e coberteiras"&amp;" inferiores das asas, são de 
 coloração amarelo-pálido ou apresentam uniforme coloração amarelo-limão.")</f>
-        <v> Ave com a aparência geral desbotada. Apresenta o píleo marrom escuro 
+        <v xml:space="preserve"> Ave com a aparência geral desbotada. Apresenta o píleo marrom escuro 
 fuliginoso com uma grande mancha central quase sempre oculta, de coloração 
 vermelho vibrante. Uma larga faixa superciliar branca com os dois lados 
 opostos confluentes na testa e não confluentes na nuca. As regiões lorais e 
@@ -3862,23 +4018,23 @@
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico, pernas e pés pretos; íris claras.")</f>
-        <v> Bico, pernas e pés pretos; íris claras.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico, pernas e pés pretos; íris claras.")</f>
+        <v xml:space="preserve"> Bico, pernas e pés pretos; íris claras.</v>
       </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os juvenis de todas as subespécies de ")</f>
-        <v> Os juvenis de todas as subespécies de </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os juvenis de todas as subespécies de ")</f>
+        <v xml:space="preserve"> Os juvenis de todas as subespécies de </v>
       </c>
       <c r="Q34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-penacho-vermelho")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bentevizinho-de-penacho-vermelho")</f>
         <v>bentevizinho-de-penacho-vermelho</v>
       </c>
       <c r="R34" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," com cores mais pálidas, desbotadas que os adultos. Apresentam as penas 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," com cores mais pálidas, desbotadas que os adultos. Apresentam as penas 
 coberteiras das asas, as rêmiges e as retrizes com bordas fortemente 
 acastanhadas. As íris dos jovens são escuras. ")</f>
-        <v> com cores mais pálidas, desbotadas que os adultos. Apresentam as penas 
+        <v xml:space="preserve"> com cores mais pálidas, desbotadas que os adultos. Apresentam as penas 
 coberteiras das asas, as rêmiges e as retrizes com bordas fortemente 
 acastanhadas. As íris dos jovens são escuras. </v>
       </c>
@@ -3889,7 +4045,7 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:44" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>173</v>
       </c>
@@ -3899,9 +4055,8 @@
       <c r="C35" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C35 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Tyrannus-melancholicus-001.jpg/280px-Tyrannus-melancholicus-001.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Tyrannus-melancholicus-001.jpg/280px-Tyrannus-melancholicus-001.jpg</v>
+      <c r="D35" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>176</v>
@@ -3919,15 +4074,15 @@
         <v>16</v>
       </c>
       <c r="J35" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B35,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," O suiriri (")</f>
-        <v> O suiriri (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B35,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," O suiriri (")</f>
+        <v xml:space="preserve"> O suiriri (</v>
       </c>
       <c r="K35" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tyrannus melancholicus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tyrannus melancholicus")</f>
         <v>Tyrannus melancholicus</v>
       </c>
       <c r="L35" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") possui a cabeça predominantemente cinza, com a garganta mais clara, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),") possui a cabeça predominantemente cinza, com a garganta mais clara, 
 tendendo ao branco, e uma faixa difusa mais escura na região ocular e 
 auricular. O píleo é de coloração laranja — uma característica visível 
 quando eriça o topete em suas disputas te"&amp;"rritoriais. O peito possui 
@@ -3935,7 +4090,7 @@
 entre 18 e 24,5 centímetros de comprimento e pesa entre 32 e 43 gramas 
 (Mobley, 2016). Os imaturos são similares aos adultos, mas as bordas das 
 cober"&amp;"teiras são acastanhadas. ")</f>
-        <v>) possui a cabeça predominantemente cinza, com a garganta mais clara, 
+        <v xml:space="preserve">) possui a cabeça predominantemente cinza, com a garganta mais clara, 
 tendendo ao branco, e uma faixa difusa mais escura na região ocular e 
 auricular. O píleo é de coloração laranja — uma característica visível 
 quando eriça o topete em suas disputas territoriais. O peito possui 
@@ -3977,7 +4132,7 @@
       <c r="AQ35" s="17"/>
       <c r="AR35" s="17"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:44" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>177</v>
       </c>
@@ -3987,9 +4142,8 @@
       <c r="C36" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C36 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/b/b5/Bananaquits.jpg/330px-Bananaquits.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/b/b5/Bananaquits.jpg/330px-Bananaquits.jpg</v>
+      <c r="D36" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>180</v>
@@ -4007,14 +4161,14 @@
         <v>16</v>
       </c>
       <c r="J36" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B36,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 10,5-11,5 centímetros e pesa cerca de 8-10 gramas. O 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B36,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 10,5-11,5 centímetros e pesa cerca de 8-10 gramas. O 
 dorso é marrom-escuro. As asas e a cauda são marrom-escuras; as rêmiges 
 primárias possuem leve bordeamento esbranquiçado, mais evidente na base. O 
 peito e o uropígio são amarelo"&amp;"s. O ventre e o crisso são amarelo-limão, e 
 por vezes esbranquiçados. A coroa e a face tem coloração negra; evidente 
 faixa superciliar branca; garganta cinzenta. O bico é curvado e pontudo, 
 negro e de base rosada. ")</f>
-        <v> Mede aproximadamente 10,5-11,5 centímetros e pesa cerca de 8-10 gramas. O 
+        <v xml:space="preserve"> Mede aproximadamente 10,5-11,5 centímetros e pesa cerca de 8-10 gramas. O 
 dorso é marrom-escuro. As asas e a cauda são marrom-escuras; as rêmiges 
 primárias possuem leve bordeamento esbranquiçado, mais evidente na base. O 
 peito e o uropígio são amarelos. O ventre e o crisso são amarelo-limão, e 
@@ -4025,7 +4179,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:44" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>182</v>
       </c>
@@ -4035,9 +4189,8 @@
       <c r="C37" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C37 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/e/ec/Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg/330px-Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/e/ec/Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg/330px-Colonia_colonus_-Parque_Nacional_do_Itatiaia%2C_Rio_de_Janeiro%2C_Brazil-8.jpg</v>
+      <c r="D37" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>185</v>
@@ -4055,13 +4208,13 @@
         <v>17</v>
       </c>
       <c r="J37" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B37,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 23 a 28 cm. O contraste entre o negro do corpo e o branco do alto 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B37,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 23 a 28 cm. O contraste entre o negro do corpo e o branco do alto 
 da cabeça é exclusivo desta espécie. Quando voa, é possível ver a grande 
 área branca nas costas, antes da cauda. As duas penas centrais da cauda são 
 muito longas (chegam a 10 ce"&amp;"ntímetros nos machos) e destacam-se pelo 
 comprimento e pelo alargamento nas pontas. As fêmeas possuem-nas menores, 
 embora seja necessário observar o casal junto para ter certeza dos sexos. ")</f>
-        <v> Mede de 23 a 28 cm. O contraste entre o negro do corpo e o branco do alto 
+        <v xml:space="preserve"> Mede de 23 a 28 cm. O contraste entre o negro do corpo e o branco do alto 
 da cabeça é exclusivo desta espécie. Quando voa, é possível ver a grande 
 área branca nas costas, antes da cauda. As duas penas centrais da cauda são 
 muito longas (chegam a 10 centímetros nos machos) e destacam-se pelo 
@@ -4069,7 +4222,7 @@
 embora seja necessário observar o casal junto para ter certeza dos sexos. </v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:44" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>187</v>
       </c>
@@ -4079,9 +4232,8 @@
       <c r="C38" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C38 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg/280px-Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg/280px-Zonotrichia_capensis_-Manizales%2C_Caldas%2C_Colombia-8-b.jpg</v>
+      <c r="D38" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>190</v>
@@ -4099,13 +4251,13 @@
         <v>16</v>
       </c>
       <c r="J38" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B38,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Pássaro de porte médio que mede 15 centímetros de comprimento. Possui o 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B38,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Pássaro de porte médio que mede 15 centímetros de comprimento. Possui o 
 corpo compacto, com asas e cauda de tamanhos regulares, pernas e pés 
 delgados e bico cônico e forte. A coloração dorsal é pardo-acinzentada, 
 tendo a cabeça cinza com duas tiras ne"&amp;"gras que partem da base da maxila 
 indo até a nuca, com parte central cinza, também partindo da mesma base e 
 alargando-se para a nuca.")</f>
-        <v> Pássaro de porte médio que mede 15 centímetros de comprimento. Possui o 
+        <v xml:space="preserve"> Pássaro de porte médio que mede 15 centímetros de comprimento. Possui o 
 corpo compacto, com asas e cauda de tamanhos regulares, pernas e pés 
 delgados e bico cônico e forte. A coloração dorsal é pardo-acinzentada, 
 tendo a cabeça cinza com duas tiras negras que partem da base da maxila 
@@ -4114,23 +4266,23 @@
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," As faces são de cor cinza, com duas tiras negras de cada lado que vão até 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," As faces são de cor cinza, com duas tiras negras de cada lado que vão até 
 a região do pescoço, uma partindo do canto posterior do olho e outra do 
 canto do bico. Pescoço com uma faixa cintada de cor vermelho-ferrugínea que 
 desce até os lados do peito a"&amp;"lto, onde se encontra com uma mancha negra.")</f>
-        <v> As faces são de cor cinza, com duas tiras negras de cada lado que vão até 
+        <v xml:space="preserve"> As faces são de cor cinza, com duas tiras negras de cada lado que vão até 
 a região do pescoço, uma partindo do canto posterior do olho e outra do 
 canto do bico. Pescoço com uma faixa cintada de cor vermelho-ferrugínea que 
 desce até os lados do peito alto, onde se encontra com uma mancha negra.</v>
       </c>
       <c r="M38" s="17"/>
       <c r="N38" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Porção intermediária dorsal de cor pardo-cinza com coberteiras, inclusive 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Porção intermediária dorsal de cor pardo-cinza com coberteiras, inclusive 
 das asas com manchas negras e restante do baixo dorso pardo-cinza. No 
 encontro das asas as penas terminam com faixa branca. Garganta branca, 
 peito e abdômen cinza-esbranquiçados"&amp;", sendo mais claro na parte central. 
 Apresenta um pequeno topete com desenho estriado na cabeça. ")</f>
-        <v> Porção intermediária dorsal de cor pardo-cinza com coberteiras, inclusive 
+        <v xml:space="preserve"> Porção intermediária dorsal de cor pardo-cinza com coberteiras, inclusive 
 das asas com manchas negras e restante do baixo dorso pardo-cinza. No 
 encontro das asas as penas terminam com faixa branca. Garganta branca, 
 peito e abdômen cinza-esbranquiçados, sendo mais claro na parte central. 
@@ -4139,7 +4291,7 @@
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:44" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>192</v>
       </c>
@@ -4149,9 +4301,8 @@
       <c r="C39" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C39 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Herpsilochmus_rufimarginatus.jpg/330px-Herpsilochmus_rufimarginatus.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Herpsilochmus_rufimarginatus.jpg/330px-Herpsilochmus_rufimarginatus.jpg</v>
+      <c r="D39" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>195</v>
@@ -4169,37 +4320,37 @@
         <v>16</v>
       </c>
       <c r="J39" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B39,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 11,5 cm de comprimento e pesa 10,5 g. Apresenta plumagem muito 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B39,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 11,5 cm de comprimento e pesa 10,5 g. Apresenta plumagem muito 
 distinta em relação ao seu gênero, assemelhando-se mais a certas espécies 
 do gênero ")</f>
-        <v> Mede 11,5 cm de comprimento e pesa 10,5 g. Apresenta plumagem muito 
+        <v xml:space="preserve"> Mede 11,5 cm de comprimento e pesa 10,5 g. Apresenta plumagem muito 
 distinta em relação ao seu gênero, assemelhando-se mais a certas espécies 
 do gênero </v>
       </c>
       <c r="K39" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Drymophila")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Drymophila")</f>
         <v>Drymophila</v>
       </c>
       <c r="L39" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", das quais se distingue pelo ventre amarelo, comum a ambos os sexos, ou 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", das quais se distingue pelo ventre amarelo, comum a ambos os sexos, ou 
 então a certos ")</f>
-        <v>, das quais se distingue pelo ventre amarelo, comum a ambos os sexos, ou 
+        <v xml:space="preserve">, das quais se distingue pelo ventre amarelo, comum a ambos os sexos, ou 
 então a certos </v>
       </c>
       <c r="M39" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terenura")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terenura")</f>
         <v>Terenura</v>
       </c>
       <c r="N39" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", dos quais se distingue pelo padrão facial e pelas asas ruivas. A cor do 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", dos quais se distingue pelo padrão facial e pelas asas ruivas. A cor do 
 alto da cabeça é diferente nos dois sexos: preto no macho e 
 castanho-ferrugíneo na fêmea. ")</f>
-        <v>, dos quais se distingue pelo padrão facial e pelas asas ruivas. A cor do 
+        <v xml:space="preserve">, dos quais se distingue pelo padrão facial e pelas asas ruivas. A cor do 
 alto da cabeça é diferente nos dois sexos: preto no macho e 
 castanho-ferrugíneo na fêmea. </v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:44" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>196</v>
       </c>
@@ -4209,9 +4360,8 @@
       <c r="C40" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C40 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Campephilus_robustus_-Argentina-3.jpg/280px-Campephilus_robustus_-Argentina-3.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Campephilus_robustus_-Argentina-3.jpg/280px-Campephilus_robustus_-Argentina-3.jpg</v>
+      <c r="D40" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>199</v>
@@ -4229,14 +4379,14 @@
         <v>17</v>
       </c>
       <c r="J40" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B40,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É considerado o maior pica-pau do Brasil, medindo cerca de 36 centímetros 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B40,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É considerado o maior pica-pau do Brasil, medindo cerca de 36 centímetros 
 de comprimento, com peso médio de 200 gramas. De rara beleza, possui a 
 cabeça e o pescoço vermelhos, dorso creme, asas e cauda negras. O peito e o 
 ventre são brancos, inteiramen"&amp;"te barrados de finas faixas horizontais 
 negras. O macho tem uma pequena mancha auricular preta e branca, enquanto a 
 fêmea possui uma grande estria malar branca, vilada de negro. Assim como as 
 demais espécies de pica-pau. ")</f>
-        <v> É considerado o maior pica-pau do Brasil, medindo cerca de 36 centímetros 
+        <v xml:space="preserve"> É considerado o maior pica-pau do Brasil, medindo cerca de 36 centímetros 
 de comprimento, com peso médio de 200 gramas. De rara beleza, possui a 
 cabeça e o pescoço vermelhos, dorso creme, asas e cauda negras. O peito e o 
 ventre são brancos, inteiramente barrados de finas faixas horizontais 
@@ -4245,31 +4395,31 @@
 demais espécies de pica-pau. </v>
       </c>
       <c r="K40" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C. robustus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C. robustus")</f>
         <v>C. robustus</v>
       </c>
       <c r="L40" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," possui um canto territorial, diversos tipos de chamados e uma música 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," possui um canto territorial, diversos tipos de chamados e uma música 
 instrumental, o “tamborilar”. Ela é executada através de repetidos golpes 
 do bico sobre a superfície de troncos secos ou ocos, substrato escolhido de 
 maneira a proporcionar boa ampli"&amp;"ação da sonoridade e alcance do ruído. ")</f>
-        <v> possui um canto territorial, diversos tipos de chamados e uma música 
+        <v xml:space="preserve"> possui um canto territorial, diversos tipos de chamados e uma música 
 instrumental, o “tamborilar”. Ela é executada através de repetidos golpes 
 do bico sobre a superfície de troncos secos ou ocos, substrato escolhido de 
 maneira a proporcionar boa ampliação da sonoridade e alcance do ruído. </v>
       </c>
       <c r="M40" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C. robustus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C. robustus")</f>
         <v>C. robustus</v>
       </c>
       <c r="N40" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," faz um “tamborilar” bissilábico, que pode soar como uma voz e ser 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," faz um “tamborilar” bissilábico, que pode soar como uma voz e ser 
 individualmente diferente. ")</f>
-        <v> faz um “tamborilar” bissilábico, que pode soar como uma voz e ser 
+        <v xml:space="preserve"> faz um “tamborilar” bissilábico, que pode soar como uma voz e ser 
 individualmente diferente. </v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:44" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>201</v>
       </c>
@@ -4279,9 +4429,8 @@
       <c r="C41" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C41 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Blond-crested_Woodpecker.jpg/280px-Blond-crested_Woodpecker.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Blond-crested_Woodpecker.jpg/280px-Blond-crested_Woodpecker.jpg</v>
+      <c r="D41" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>204</v>
@@ -4299,28 +4448,28 @@
         <v>17</v>
       </c>
       <c r="J41" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B41,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 27 e 30 centímetros de comprimento e pesa entre 110 e 165 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B41,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 27 e 30 centímetros de comprimento e pesa entre 110 e 165 
 gramas.")</f>
-        <v> Mede entre 27 e 30 centímetros de comprimento e pesa entre 110 e 165 
+        <v xml:space="preserve"> Mede entre 27 e 30 centímetros de comprimento e pesa entre 110 e 165 
 gramas.</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Cabeça e face amarelos, com proeminente topete da mesma cor; macho com 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Cabeça e face amarelos, com proeminente topete da mesma cor; macho com 
 faixa malar vermelha. Partes superiores pretas, barradas de branco e partes 
 inferiores uniformemente pretas. Muito semelhante ao ")</f>
-        <v> Cabeça e face amarelos, com proeminente topete da mesma cor; macho com 
+        <v xml:space="preserve"> Cabeça e face amarelos, com proeminente topete da mesma cor; macho com 
 faixa malar vermelha. Partes superiores pretas, barradas de branco e partes 
 inferiores uniformemente pretas. Muito semelhante ao </v>
       </c>
       <c r="M41" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Celeus ochraceus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Celeus ochraceus")</f>
         <v>Celeus ochraceus</v>
       </c>
       <c r="N41" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", se diferencia deste por possuir uma coloração mais preta e menos 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", se diferencia deste por possuir uma coloração mais preta e menos 
 amarelada, diferente do Celeus Ochraceus. ")</f>
-        <v>, se diferencia deste por possuir uma coloração mais preta e menos 
+        <v xml:space="preserve">, se diferencia deste por possuir uma coloração mais preta e menos 
 amarelada, diferente do Celeus Ochraceus. </v>
       </c>
       <c r="O41" s="17"/>
@@ -4328,7 +4477,7 @@
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:44" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>206</v>
       </c>
@@ -4338,9 +4487,8 @@
       <c r="C42" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C42 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/d/d5/Benedito_de_testa_amarela.jpg/280px-Benedito_de_testa_amarela.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/d/d5/Benedito_de_testa_amarela.jpg/280px-Benedito_de_testa_amarela.jpg</v>
+      <c r="D42" s="9" t="s">
+        <v>374</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>209</v>
@@ -4358,35 +4506,35 @@
         <v>17</v>
       </c>
       <c r="J42" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B42,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem cerca de 19,5 centímetros. Espécie multicolorida. Fronte e garganta 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B42,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem cerca de 19,5 centímetros. Espécie multicolorida. Fronte e garganta 
 amarelo-vivos, vértice posterior e nuca vermelhos no macho e pretos na 
 fêmea; pescoço posterior, dorso superior e asas negros; dorso inferior e ")</f>
-        <v> Tem cerca de 19,5 centímetros. Espécie multicolorida. Fronte e garganta 
+        <v xml:space="preserve"> Tem cerca de 19,5 centímetros. Espécie multicolorida. Fronte e garganta 
 amarelo-vivos, vértice posterior e nuca vermelhos no macho e pretos na 
 fêmea; pescoço posterior, dorso superior e asas negros; dorso inferior e </v>
       </c>
       <c r="K42" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uropígio")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uropígio")</f>
         <v>uropígio</v>
       </c>
       <c r="L42" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos; peito superior pardacento; peito inferior e ventre vermelhos; 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos; peito superior pardacento; peito inferior e ventre vermelhos; 
 flancos barrados de preto e branco. É barulhento. Entre os vários sons que 
 produz, tem um grito forte, ríspido e rápido, ")</f>
-        <v> brancos; peito superior pardacento; peito inferior e ventre vermelhos; 
+        <v xml:space="preserve"> brancos; peito superior pardacento; peito inferior e ventre vermelhos; 
 flancos barrados de preto e branco. É barulhento. Entre os vários sons que 
 produz, tem um grito forte, ríspido e rápido, </v>
       </c>
       <c r="M42" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"beneditô")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"beneditô")</f>
         <v>beneditô</v>
       </c>
       <c r="N42" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", que originou o nome popular. ")</f>
-        <v>, que originou o nome popular. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", que originou o nome popular. ")</f>
+        <v xml:space="preserve">, que originou o nome popular. </v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:44" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>210</v>
       </c>
@@ -4396,9 +4544,8 @@
       <c r="C43" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C43 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/19/Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg/330px-Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/19/Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg/330px-Sittasomus_griseicapillus_Olivaceous_Woodcreeper.jpg</v>
+      <c r="D43" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>213</v>
@@ -4416,26 +4563,26 @@
         <v>16</v>
       </c>
       <c r="J43" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B43,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 15 e 19,5 centímetros de comprimento e pesa entre 8 e 29 gramas.")</f>
-        <v> Mede entre 15 e 19,5 centímetros de comprimento e pesa entre 8 e 29 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B43,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 15 e 19,5 centímetros de comprimento e pesa entre 8 e 29 gramas.")</f>
+        <v xml:space="preserve"> Mede entre 15 e 19,5 centímetros de comprimento e pesa entre 8 e 29 gramas.</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico pequeno e reto, pouco notável e diferente dos demais ")</f>
-        <v> Bico pequeno e reto, pouco notável e diferente dos demais </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico pequeno e reto, pouco notável e diferente dos demais ")</f>
+        <v xml:space="preserve"> Bico pequeno e reto, pouco notável e diferente dos demais </v>
       </c>
       <c r="M43" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arapaçus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arapaçus")</f>
         <v>arapaçus</v>
       </c>
       <c r="N43" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". A parte final das costas, asas e a cauda são marrom-avermelhados. As ssp. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". A parte final das costas, asas e a cauda são marrom-avermelhados. As ssp. 
 amazônicas possuem a cabeça, parte superior das costas, barriga e peito 
 cinzas ou cinza-oliváceos. As ssp. que ocorrem no Brasil fora da Amazônia 
 possuem a coloração marrom oli"&amp;"vácea brilhante onde nas demais ssp é cinza. 
 Quando voa de um tronco a outro, sob boas condições de luz, aparece a faixa 
 amarelada nas penas de voo cruzando o meio das penas longas das asas. ")</f>
-        <v>. A parte final das costas, asas e a cauda são marrom-avermelhados. As ssp. 
+        <v xml:space="preserve">. A parte final das costas, asas e a cauda são marrom-avermelhados. As ssp. 
 amazônicas possuem a cabeça, parte superior das costas, barriga e peito 
 cinzas ou cinza-oliváceos. As ssp. que ocorrem no Brasil fora da Amazônia 
 possuem a coloração marrom olivácea brilhante onde nas demais ssp é cinza. 
@@ -4443,7 +4590,7 @@
 amarelada nas penas de voo cruzando o meio das penas longas das asas. </v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:44" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>215</v>
       </c>
@@ -4453,9 +4600,8 @@
       <c r="C44" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C44 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/8/8f/MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg/330px-MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/8/8f/MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg/330px-MARTIM-PESCADOR-GRANDE_%28Megaceryle_torquata%29.jpg</v>
+      <c r="D44" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>218</v>
@@ -4473,7 +4619,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B44,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 42 centímetros e pesa de 305 a 341 gramas. Maior espécie da família 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B44,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 42 centímetros e pesa de 305 a 341 gramas. Maior espécie da família 
 no Brasil. Corpo atarracado, cabeça grande com crista irregular conspícua 
 que cobre todo o píleo da base do bico até a nuca. Bico grande (8 
 centímetros), às vezes com matizes enc"&amp;"arnadas; cabeça e partes superiores 
@@ -4491,7 +4637,7 @@
 semelhante à fêmea, por também apresentar uma faixa branca cortando o 
 peito, mas a diferença é a extensão da área ferrugínea do ventre (até a 
 região do crisso nos mach"&amp;"os, até chegar às retrizes nas fêmeas). ")</f>
-        <v> Mede 42 centímetros e pesa de 305 a 341 gramas. Maior espécie da família 
+        <v xml:space="preserve"> Mede 42 centímetros e pesa de 305 a 341 gramas. Maior espécie da família 
 no Brasil. Corpo atarracado, cabeça grande com crista irregular conspícua 
 que cobre todo o píleo da base do bico até a nuca. Bico grande (8 
 centímetros), às vezes com matizes encarnadas; cabeça e partes superiores 
@@ -4513,7 +4659,7 @@
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:44" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>220</v>
       </c>
@@ -4523,9 +4669,8 @@
       <c r="C45" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C45 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/4/48/Tinamus_solitarius_5.jpg/330px-Tinamus_solitarius_5.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/4/48/Tinamus_solitarius_5.jpg/330px-Tinamus_solitarius_5.jpg</v>
+      <c r="D45" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>223</v>
@@ -4543,11 +4688,11 @@
         <v>16</v>
       </c>
       <c r="J45" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B45,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Atinge até 52 centímetros e entre 1,5 a 2,5 quilos de peso médio. As 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B45,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Atinge até 52 centímetros e entre 1,5 a 2,5 quilos de peso médio. As 
 fêmeas geralmente são maiores e mais pesadas que os machos. Há relatos de 
 fêmeas pesando 2,5 quilos, ainda abaixo das fêmeas de Tinamus tao, a 
 azulona da Amazônia, que atinge os 3,0 "&amp;"quilos, ")</f>
-        <v> Atinge até 52 centímetros e entre 1,5 a 2,5 quilos de peso médio. As 
+        <v xml:space="preserve"> Atinge até 52 centímetros e entre 1,5 a 2,5 quilos de peso médio. As 
 fêmeas geralmente são maiores e mais pesadas que os machos. Há relatos de 
 fêmeas pesando 2,5 quilos, ainda abaixo das fêmeas de Tinamus tao, a 
 azulona da Amazônia, que atinge os 3,0 quilos, </v>
@@ -4565,7 +4710,7 @@
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:44" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>224</v>
       </c>
@@ -4575,9 +4720,8 @@
       <c r="C46" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C46 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29.jpg/330px-Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29"&amp;".jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29.jpg/330px-Nascidas_no_Zoo%2C_aves_ajudar%C3%A3o_na_conserva%C3%A7%C3%A3o_da_esp%C3%A9cie_%2852657039698%29.jpg</v>
+      <c r="D46" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>227</v>
@@ -4595,26 +4739,26 @@
         <v>17</v>
       </c>
       <c r="J46" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B46,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É uma ave grande, medindo entre 64 e 74 centímetros de comprimento e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B46,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," É uma ave grande, medindo entre 64 e 74 centímetros de comprimento e 
 pesando de 1,1 a 1,4 quilogramas. É fácil de identificar, pois em quase 
 toda a sua área de ocorrência é o único Cracídeo com mancha branca na asa. 
 No extremo oeste da área de ocorrên"&amp;"cia, no Paraguai, a espécie pode ocorrer 
 ao lado da ")</f>
-        <v> É uma ave grande, medindo entre 64 e 74 centímetros de comprimento e 
+        <v xml:space="preserve"> É uma ave grande, medindo entre 64 e 74 centímetros de comprimento e 
 pesando de 1,1 a 1,4 quilogramas. É fácil de identificar, pois em quase 
 toda a sua área de ocorrência é o único Cracídeo com mancha branca na asa. 
 No extremo oeste da área de ocorrência, no Paraguai, a espécie pode ocorrer 
 ao lado da </v>
       </c>
       <c r="K46" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jacutinga-de-garganta-azul")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jacutinga-de-garganta-azul")</f>
         <v>jacutinga-de-garganta-azul</v>
       </c>
       <c r="L46" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (Aburria cumanensis), que também possui mancha branca na asa, mas, como o 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (Aburria cumanensis), que também possui mancha branca na asa, mas, como o 
 nome sugere, possui garganta azul ao invés de vermelha, e a cara também é 
 toda branca. ")</f>
-        <v> (Aburria cumanensis), que também possui mancha branca na asa, mas, como o 
+        <v xml:space="preserve"> (Aburria cumanensis), que também possui mancha branca na asa, mas, como o 
 nome sugere, possui garganta azul ao invés de vermelha, e a cara também é 
 toda branca. </v>
       </c>
@@ -4636,7 +4780,7 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:44" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>229</v>
       </c>
@@ -4646,9 +4790,8 @@
       <c r="C47" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C47 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Soco_boi.jpg/280px-Soco_boi.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Soco_boi.jpg/280px-Soco_boi.jpg</v>
+      <c r="D47" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>232</v>
@@ -4666,20 +4809,20 @@
         <v>16</v>
       </c>
       <c r="J47" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B47,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 66 e 76 centímetros de comprimento e pesa cerca de 840 gramas 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B47,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 66 e 76 centímetros de comprimento e pesa cerca de 840 gramas 
 (Martínez-Vilalta, et al, 2016 em HBW).")</f>
-        <v> Mede entre 66 e 76 centímetros de comprimento e pesa cerca de 840 gramas 
+        <v xml:space="preserve"> Mede entre 66 e 76 centímetros de comprimento e pesa cerca de 840 gramas 
 (Martínez-Vilalta, et al, 2016 em HBW).</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A plumagem adulta é idêntica para ambos os sexos e é adquirida aos dois 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A plumagem adulta é idêntica para ambos os sexos e é adquirida aos dois 
 anos de idade, caracterizando-se pelo pescoço castanho com uma faixa branca 
 vertical na frente e manto pardo-acinzentado, manchado de acanelado; possui 
 um bico bastante longo. A p"&amp;"lumagem do socó-boi jovem é amarelo-clara com 
 faixas transversais negras, garganta e ventre brancos e o bico é 
 relativamente curto. ")</f>
-        <v> A plumagem adulta é idêntica para ambos os sexos e é adquirida aos dois 
+        <v xml:space="preserve"> A plumagem adulta é idêntica para ambos os sexos e é adquirida aos dois 
 anos de idade, caracterizando-se pelo pescoço castanho com uma faixa branca 
 vertical na frente e manto pardo-acinzentado, manchado de acanelado; possui 
 um bico bastante longo. A plumagem do socó-boi jovem é amarelo-clara com 
@@ -4690,7 +4833,7 @@
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:44" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>234</v>
       </c>
@@ -4719,55 +4862,55 @@
         <v>17</v>
       </c>
       <c r="J48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B48,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 12-18 centímetros de comprimento e pesa cerca de 35-56 gramas.")</f>
-        <v> Mede 12-18 centímetros de comprimento e pesa cerca de 35-56 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B48,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 12-18 centímetros de comprimento e pesa cerca de 35-56 gramas.")</f>
+        <v xml:space="preserve"> Mede 12-18 centímetros de comprimento e pesa cerca de 35-56 gramas.</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O ")</f>
-        <v> O </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O ")</f>
+        <v xml:space="preserve"> O </v>
       </c>
       <c r="M48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"macho")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"macho")</f>
         <v>macho</v>
       </c>
       <c r="N48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", com penas marrom avermelhadas, cor dominante no ")</f>
-        <v>, com penas marrom avermelhadas, cor dominante no </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", com penas marrom avermelhadas, cor dominante no ")</f>
+        <v xml:space="preserve">, com penas marrom avermelhadas, cor dominante no </v>
       </c>
       <c r="O48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"corpo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"corpo")</f>
         <v>corpo</v>
       </c>
       <c r="P48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do adulto, em contraste com a cabeça, cinza azulada. A ")</f>
-        <v> do adulto, em contraste com a cabeça, cinza azulada. A </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," do adulto, em contraste com a cabeça, cinza azulada. A ")</f>
+        <v xml:space="preserve"> do adulto, em contraste com a cabeça, cinza azulada. A </v>
       </c>
       <c r="Q48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fêmea")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fêmea")</f>
         <v>fêmea</v>
       </c>
       <c r="R48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é toda parda. Nos dois sexos, sobre a asa há uma série de pontos negros 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é toda parda. Nos dois sexos, sobre a asa há uma série de pontos negros 
 nas penas. Os ")</f>
-        <v> é toda parda. Nos dois sexos, sobre a asa há uma série de pontos negros 
+        <v xml:space="preserve"> é toda parda. Nos dois sexos, sobre a asa há uma série de pontos negros 
 nas penas. Os </v>
       </c>
       <c r="S48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filhotes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"filhotes")</f>
         <v>filhotes</v>
       </c>
       <c r="T48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," saem com traços da ")</f>
-        <v> saem com traços da </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," saem com traços da ")</f>
+        <v xml:space="preserve"> saem com traços da </v>
       </c>
       <c r="U48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem")</f>
         <v>plumagem</v>
       </c>
       <c r="V48" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de cada sexo. ")</f>
-        <v> de cada sexo. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de cada sexo. ")</f>
+        <v xml:space="preserve"> de cada sexo. </v>
       </c>
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
@@ -4776,7 +4919,7 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:35" ht="15.75" customHeight="1">
       <c r="A49" s="25" t="s">
         <v>239</v>
       </c>
@@ -4786,9 +4929,8 @@
       <c r="C49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C49 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/3/3c/VioletDove2.jpg/330px-VioletDove2.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/3/3c/VioletDove2.jpg/330px-VioletDove2.jpg</v>
+      <c r="D49" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>242</v>
@@ -4806,20 +4948,20 @@
         <v>16</v>
       </c>
       <c r="J49" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B49,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem 29 centímetros de comprimento e pesa entre 160 e 215 gramas. Sua 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B49,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem 29 centímetros de comprimento e pesa entre 160 e 215 gramas. Sua 
 plumagem é marrom, com ")</f>
-        <v> Tem 29 centímetros de comprimento e pesa entre 160 e 215 gramas. Sua 
+        <v xml:space="preserve"> Tem 29 centímetros de comprimento e pesa entre 160 e 215 gramas. Sua 
 plumagem é marrom, com </v>
       </c>
       <c r="K49" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"peito")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"peito")</f>
         <v>peito</v>
       </c>
       <c r="L49" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," claro, cabeça cinzenta com alguns reflexos metálicos na nuca e alto dorso. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," claro, cabeça cinzenta com alguns reflexos metálicos na nuca e alto dorso. 
 Quando em voo é possivel notar uma coloraçâo vermelho-ferrugem embaixo das 
 asas. Possui, ainda, uma coloração azulada ao redor dos olhos. ")</f>
-        <v> claro, cabeça cinzenta com alguns reflexos metálicos na nuca e alto dorso. 
+        <v xml:space="preserve"> claro, cabeça cinzenta com alguns reflexos metálicos na nuca e alto dorso. 
 Quando em voo é possivel notar uma coloraçâo vermelho-ferrugem embaixo das 
 asas. Possui, ainda, uma coloração azulada ao redor dos olhos. </v>
       </c>
@@ -4832,7 +4974,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:35" ht="15.75" customHeight="1">
       <c r="A50" s="25" t="s">
         <v>243</v>
       </c>
@@ -4842,9 +4984,8 @@
       <c r="C50" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C50 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/2/21/Scaled_Pigeon.jpg/280px-Scaled_Pigeon.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/2/21/Scaled_Pigeon.jpg/280px-Scaled_Pigeon.jpg</v>
+      <c r="D50" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>246</v>
@@ -4862,29 +5003,29 @@
         <v>17</v>
       </c>
       <c r="J50" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B50,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 30 cm de comprimento. O macho possui as penas do ")</f>
-        <v> Mede cerca de 30 cm de comprimento. O macho possui as penas do </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B50,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 30 cm de comprimento. O macho possui as penas do ")</f>
+        <v xml:space="preserve"> Mede cerca de 30 cm de comprimento. O macho possui as penas do </v>
       </c>
       <c r="K50" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pescoço")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pescoço")</f>
         <v>pescoço</v>
       </c>
       <c r="L50" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de coloração metálica, dando-lhe uma aparência ")</f>
-        <v> de coloração metálica, dando-lhe uma aparência </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de coloração metálica, dando-lhe uma aparência ")</f>
+        <v xml:space="preserve"> de coloração metálica, dando-lhe uma aparência </v>
       </c>
       <c r="M50" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"escamosa")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"escamosa")</f>
         <v>escamosa</v>
       </c>
       <c r="N50" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e a fêmea apresenta o pescoço marginado de preto, com pouco reflexo 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e a fêmea apresenta o pescoço marginado de preto, com pouco reflexo 
 metálico. ")</f>
-        <v> e a fêmea apresenta o pescoço marginado de preto, com pouco reflexo 
+        <v xml:space="preserve"> e a fêmea apresenta o pescoço marginado de preto, com pouco reflexo 
 metálico. </v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>248</v>
       </c>
@@ -4894,9 +5035,8 @@
       <c r="C51" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C51 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg/330px-Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/12/Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg/330px-Plumbeous_Pigeon_%28Patagioenas_plumbea%29_%288079745172%29.jpg</v>
+      <c r="D51" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>251</v>
@@ -4914,37 +5054,37 @@
         <v>16</v>
       </c>
       <c r="J51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B51,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 34 centímetros de comprimento e pesa 230 gramas.")</f>
-        <v> Mede cerca de 34 centímetros de comprimento e pesa 230 gramas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B51,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 34 centímetros de comprimento e pesa 230 gramas.")</f>
+        <v xml:space="preserve"> Mede cerca de 34 centímetros de comprimento e pesa 230 gramas.</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Seu tamanho é avantajado e a ")</f>
-        <v> Seu tamanho é avantajado e a </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Seu tamanho é avantajado e a ")</f>
+        <v xml:space="preserve"> Seu tamanho é avantajado e a </v>
       </c>
       <c r="M51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cauda")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cauda")</f>
         <v>cauda</v>
       </c>
       <c r="N51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é longa e larga. Seu colorido é cinza-plúmbeo, quase uniforme, com 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é longa e larga. Seu colorido é cinza-plúmbeo, quase uniforme, com 
 pequenas manchas claras e apagadas na base do pescoço posterior. Possui um ")</f>
-        <v> é longa e larga. Seu colorido é cinza-plúmbeo, quase uniforme, com 
+        <v xml:space="preserve"> é longa e larga. Seu colorido é cinza-plúmbeo, quase uniforme, com 
 pequenas manchas claras e apagadas na base do pescoço posterior. Possui um </v>
       </c>
       <c r="O51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto forte")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto forte")</f>
         <v>canto forte</v>
       </c>
       <c r="P51" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," formado por cinco sílabas bem distintas: “ku ku-ku ku ku”. Na Amazônia, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," formado por cinco sílabas bem distintas: “ku ku-ku ku ku”. Na Amazônia, 
 pode ser confundida com a pomba-botafogo, com quem divide o mesmo espaço, 
 diferindo-se desta pelo tamanho e pela tonalidade (a botafogo é um pouco 
 menor e é mais violacea) e pela "&amp;"coloração da íris, vermelha na botafogo e 
 branca na amargosa. Os cantos também são diferentes, o que facilita a 
 identificação, já que é mais fácil ouvi-la do que vê-la, nas copas das 
 árvores. ")</f>
-        <v> formado por cinco sílabas bem distintas: “ku ku-ku ku ku”. Na Amazônia, 
+        <v xml:space="preserve"> formado por cinco sílabas bem distintas: “ku ku-ku ku ku”. Na Amazônia, 
 pode ser confundida com a pomba-botafogo, com quem divide o mesmo espaço, 
 diferindo-se desta pelo tamanho e pela tonalidade (a botafogo é um pouco 
 menor e é mais violacea) e pela coloração da íris, vermelha na botafogo e 
@@ -4953,7 +5093,7 @@
 árvores. </v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>252</v>
       </c>
@@ -4963,9 +5103,8 @@
       <c r="C52" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D52" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C52 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Procnias_nudicollis.jpg/330px-Procnias_nudicollis.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Procnias_nudicollis.jpg/330px-Procnias_nudicollis.jpg</v>
+      <c r="D52" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>255</v>
@@ -4983,22 +5122,22 @@
         <v>17</v>
       </c>
       <c r="J52" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B52,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui a cabeça achatada, ")</f>
-        <v> Possui a cabeça achatada, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B52,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui a cabeça achatada, ")</f>
+        <v xml:space="preserve"> Possui a cabeça achatada, </v>
       </c>
       <c r="K52" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boca")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boca")</f>
         <v>boca</v>
       </c>
       <c r="L52" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," alargada e ampla, e o bico é curto. Os machos adultos são inteiramente 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," alargada e ampla, e o bico é curto. Os machos adultos são inteiramente 
 brancos, exceto os lados da cabeça e garganta, que são nus, de cor 
 verde-jade onde se implantam raras cerdas pretas; bico preto e pés pardos, 
 tamanho médio de 27 centímetros. A fêm"&amp;"ea adulta tem a parte superior 
 verde-oliva, com a cabeça cinza e a parte inferior amarela com estrias 
 amarelo-esverdeadas e cinzentas; a garganta é cinzenta onde entremeiam-se 
 estrias negras; possui tamanho menor do que o macho. ")</f>
-        <v> alargada e ampla, e o bico é curto. Os machos adultos são inteiramente 
+        <v xml:space="preserve"> alargada e ampla, e o bico é curto. Os machos adultos são inteiramente 
 brancos, exceto os lados da cabeça e garganta, que são nus, de cor 
 verde-jade onde se implantam raras cerdas pretas; bico preto e pés pardos, 
 tamanho médio de 27 centímetros. A fêmea adulta tem a parte superior 
@@ -5007,15 +5146,15 @@
 estrias negras; possui tamanho menor do que o macho. </v>
       </c>
       <c r="M52" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Crisso")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Crisso")</f>
         <v>Crisso</v>
       </c>
       <c r="N52" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelo. O imaturo é semelhante à fêmea, com cabeça e garganta negras; 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," amarelo. O imaturo é semelhante à fêmea, com cabeça e garganta negras; 
 substitui as penas verdes sucessivamente por cinzento-esverdeadas e 
 brancas, as últimas em partes vermiculadas de cinzento; o macho torna-se 
 totalmente branco com 3 anos de idade ("&amp;"Sick 1997). ")</f>
-        <v> amarelo. O imaturo é semelhante à fêmea, com cabeça e garganta negras; 
+        <v xml:space="preserve"> amarelo. O imaturo é semelhante à fêmea, com cabeça e garganta negras; 
 substitui as penas verdes sucessivamente por cinzento-esverdeadas e 
 brancas, as últimas em partes vermiculadas de cinzento; o macho torna-se 
 totalmente branco com 3 anos de idade (Sick 1997). </v>
@@ -5039,7 +5178,7 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="17"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>258</v>
       </c>
@@ -5049,9 +5188,8 @@
       <c r="C53" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C53 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg/280px-Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg/280px-Chivi_Vireo%2C_Carlsen_Field%2C_Trinidad_%2834888074290%29.jpg</v>
+      <c r="D53" s="9" t="s">
+        <v>384</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>261</v>
@@ -5069,15 +5207,15 @@
         <v>16</v>
       </c>
       <c r="J53" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B53,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 14 cm de comprimento. É detectada pelo ")</f>
-        <v> Mede 14 cm de comprimento. É detectada pelo </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B53,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 14 cm de comprimento. É detectada pelo ")</f>
+        <v xml:space="preserve"> Mede 14 cm de comprimento. É detectada pelo </v>
       </c>
       <c r="K53" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
         <v>canto</v>
       </c>
       <c r="L53" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", simples e repetitivo mas melodioso. Quase nunca deixa a folhagem das 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", simples e repetitivo mas melodioso. Quase nunca deixa a folhagem das 
 árvores, e não é muito frequente vê-la, já que, por ser pequena, de 
 colorido apagado e de comportamento discreto, não costuma chamar a atenção. 
 Na Amazônia pode ser confundida com s"&amp;"eus primos migratórios (Vireo 
@@ -5103,7 +5241,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:35" ht="15.75" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>263</v>
       </c>
@@ -5113,9 +5251,8 @@
       <c r="C54" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C54 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/4/43/Cyclarhis_gujanensis_-eating_green_caterpillar.jpg/280px-Cyclarhis_gujanensis_-eating_green_caterpillar.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/4/43/Cyclarhis_gujanensis_-eating_green_caterpillar.jpg/280px-Cyclarhis_gujanensis_-eating_green_caterpillar.jpg</v>
+      <c r="D54" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>266</v>
@@ -5133,7 +5270,7 @@
         <v>16</v>
       </c>
       <c r="J54" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B54,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 16,5 centímetros, tem cabeça e bico desproporcionais ao 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B54,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 16,5 centímetros, tem cabeça e bico desproporcionais ao 
 corpo. O bico é todo acinzentado com leve tom róseo, de aspecto poderoso e 
 terminando com uma ponta fina, virada para baixo, parecendo um bico de ave 
 de rapina em um pássaro. As cor"&amp;"es são únicas, com a cabeça e nuca 
@@ -5142,7 +5279,7 @@
 cabeça oliváceo ou cinza-escuro. No peito, uma larga faixa amarelada"&amp;" separa 
 a barriga e a garganta cinza-claro, quase branca. Dorso pardo-esverdeado. 
 Macho e fêmea são idênticos. ")</f>
-        <v> Mede cerca de 16,5 centímetros, tem cabeça e bico desproporcionais ao 
+        <v xml:space="preserve"> Mede cerca de 16,5 centímetros, tem cabeça e bico desproporcionais ao 
 corpo. O bico é todo acinzentado com leve tom róseo, de aspecto poderoso e 
 terminando com uma ponta fina, virada para baixo, parecendo um bico de ave 
 de rapina em um pássaro. As cores são únicas, com a cabeça e nuca 
@@ -5157,7 +5294,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:35" ht="15.75" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>267</v>
       </c>
@@ -5186,42 +5323,42 @@
         <v>16</v>
       </c>
       <c r="J55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B55,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 10-13 centímetros de comprimento e pesa em torno de 10-12 g. É 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B55,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 10-13 centímetros de comprimento e pesa em torno de 10-12 g. É 
 grande ")</f>
-        <v> Mede de 10-13 centímetros de comprimento e pesa em torno de 10-12 g. É 
+        <v xml:space="preserve"> Mede de 10-13 centímetros de comprimento e pesa em torno de 10-12 g. É 
 grande </v>
       </c>
       <c r="K55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cantadora")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cantadora")</f>
         <v>cantadora</v>
       </c>
       <c r="L55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e seu ")</f>
-        <v> e seu </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e seu ")</f>
+        <v xml:space="preserve"> e seu </v>
       </c>
       <c r="M55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
         <v>canto</v>
       </c>
       <c r="N55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trinado")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trinado")</f>
         <v>trinado</v>
       </c>
       <c r="O55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", alegre e ")</f>
-        <v>, alegre e </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", alegre e ")</f>
+        <v xml:space="preserve">, alegre e </v>
       </c>
       <c r="P55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"melodioso")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"melodioso")</f>
         <v>melodioso</v>
       </c>
       <c r="Q55" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", é ouvido principalmente no começo da manhã. Enquanto ela se move sobre 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", é ouvido principalmente no começo da manhã. Enquanto ela se move sobre 
 construções ou na vegetação, emite sem parar um crét crét, rouco e baixo. 
 Bem pequena, pode ser escondida na palma da mão. É parente do famoso 
 uirapuru, considerado por muitos com"&amp;"o a ave brasileira que tem o canto mais 
 bonito. ")</f>
-        <v>, é ouvido principalmente no começo da manhã. Enquanto ela se move sobre 
+        <v xml:space="preserve">, é ouvido principalmente no começo da manhã. Enquanto ela se move sobre 
 construções ou na vegetação, emite sem parar um crét crét, rouco e baixo. 
 Bem pequena, pode ser escondida na palma da mão. É parente do famoso 
 uirapuru, considerado por muitos como a ave brasileira que tem o canto mais 
@@ -5231,7 +5368,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:35" ht="15.75" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>272</v>
       </c>
@@ -5241,9 +5378,8 @@
       <c r="C56" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C56 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg/280px-Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg/280px-Flickr_-_Dario_Sanches_-_PULA-PULA_%28Basileuterus_culicivorus%29_%283%29.jpg</v>
+      <c r="D56" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>275</v>
@@ -5261,28 +5397,28 @@
         <v>16</v>
       </c>
       <c r="J56" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B56,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 12 centímetros e pesa cerca de 10,5 gramas. Possui o lado 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B56,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 12 centímetros e pesa cerca de 10,5 gramas. Possui o lado 
 inferior amarelo e o superior verde-oliváceo, ")</f>
-        <v> Mede cerca de 12 centímetros e pesa cerca de 10,5 gramas. Possui o lado 
+        <v xml:space="preserve"> Mede cerca de 12 centímetros e pesa cerca de 10,5 gramas. Possui o lado 
 inferior amarelo e o superior verde-oliváceo, </v>
       </c>
       <c r="K56" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sobrancelha")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sobrancelha")</f>
         <v>sobrancelha</v>
       </c>
       <c r="L56" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," esbranquiçada, realçada por uma faixa anegrada por baixo e por cima, faixa 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," esbranquiçada, realçada por uma faixa anegrada por baixo e por cima, faixa 
 medial no ")</f>
-        <v> esbranquiçada, realçada por uma faixa anegrada por baixo e por cima, faixa 
+        <v xml:space="preserve"> esbranquiçada, realçada por uma faixa anegrada por baixo e por cima, faixa 
 medial no </v>
       </c>
       <c r="M56" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"píleo")</f>
         <v>píleo</v>
       </c>
       <c r="N56" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," cinzento-avermelhada. ")</f>
-        <v> cinzento-avermelhada. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," cinzento-avermelhada. ")</f>
+        <v xml:space="preserve"> cinzento-avermelhada. </v>
       </c>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
@@ -5303,7 +5439,7 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:35" ht="15.75" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>277</v>
       </c>
@@ -5313,9 +5449,8 @@
       <c r="C57" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C57 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Schopfkarakara.jpg/330px-Schopfkarakara.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Schopfkarakara.jpg/330px-Schopfkarakara.jpg</v>
+      <c r="D57" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>280</v>
@@ -5333,15 +5468,15 @@
         <v>17</v>
       </c>
       <c r="J57" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B57,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Medindo cerca de 50-60 centímetros da ")</f>
-        <v> Medindo cerca de 50-60 centímetros da </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B57,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Medindo cerca de 50-60 centímetros da ")</f>
+        <v xml:space="preserve"> Medindo cerca de 50-60 centímetros da </v>
       </c>
       <c r="K57" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça a cauda")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça a cauda")</f>
         <v>cabeça a cauda</v>
       </c>
       <c r="L57" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", o peso do macho é de 834 g; a fêmea pesa 953 g e mede cerca de 123 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", o peso do macho é de 834 g; a fêmea pesa 953 g e mede cerca de 123 
 centímetros de envergadura; o carcará é facilmente reconhecível quando 
 pousado, pelo fato de possuir uma espécie de solidéu preto sobre a cabeça, 
 assim como um bico adunco e alto, que"&amp;" assemelha-se à lâmina de um cutelo; a 
@@ -5350,7 +5485,7 @@
 compridas e de cor amarela; em voo, assemelha-se a um urubu, ma"&amp;"s é 
 reconhecível por duas manchas de cor clara na extremidade das asas. Deve 
 seu nome à ")</f>
-        <v>, o peso do macho é de 834 g; a fêmea pesa 953 g e mede cerca de 123 
+        <v xml:space="preserve">, o peso do macho é de 834 g; a fêmea pesa 953 g e mede cerca de 123 
 centímetros de envergadura; o carcará é facilmente reconhecível quando 
 pousado, pelo fato de possuir uma espécie de solidéu preto sobre a cabeça, 
 assim como um bico adunco e alto, que assemelha-se à lâmina de um cutelo; a 
@@ -5361,12 +5496,12 @@
 seu nome à </v>
       </c>
       <c r="M57" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vocalização")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vocalização")</f>
         <v>vocalização</v>
       </c>
       <c r="N57" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," que emite. ")</f>
-        <v> que emite. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," que emite. ")</f>
+        <v xml:space="preserve"> que emite. </v>
       </c>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
@@ -5390,7 +5525,7 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:35" ht="15.75" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>282</v>
       </c>
@@ -5400,9 +5535,8 @@
       <c r="C58" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D58" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C58 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Buteo_magnirostris_-Goias_-Brazil-8.jpg/280px-Buteo_magnirostris_-Goias_-Brazil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Buteo_magnirostris_-Goias_-Brazil-8.jpg/280px-Buteo_magnirostris_-Goias_-Brazil-8.jpg</v>
+      <c r="D58" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>285</v>
@@ -5420,34 +5554,34 @@
         <v>17</v>
       </c>
       <c r="J58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B58,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 31 a 41 centímetros de comprimento, e o peso do macho varia entre 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B58,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 31 a 41 centímetros de comprimento, e o peso do macho varia entre 
 206-290 gramas e da fêmea 257-350 gramas, sendo os machos 20% menores que 
 as fêmeas.")</f>
-        <v> Mede de 31 a 41 centímetros de comprimento, e o peso do macho varia entre 
+        <v xml:space="preserve"> Mede de 31 a 41 centímetros de comprimento, e o peso do macho varia entre 
 206-290 gramas e da fêmea 257-350 gramas, sendo os machos 20% menores que 
 as fêmeas.</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Há grande diferença entre os adultos e os imaturos, sendo que os últimos ")</f>
-        <v> Há grande diferença entre os adultos e os imaturos, sendo que os últimos </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Há grande diferença entre os adultos e os imaturos, sendo que os últimos ")</f>
+        <v xml:space="preserve"> Há grande diferença entre os adultos e os imaturos, sendo que os últimos </v>
       </c>
       <c r="M58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"podem ser confundidos")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"podem ser confundidos")</f>
         <v>podem ser confundidos</v>
       </c>
       <c r="N58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," com vários outros gaviões, pois apresentam a coloração marrom-carijó. Já 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," com vários outros gaviões, pois apresentam a coloração marrom-carijó. Já 
 os adultos apresentam a ponta do ")</f>
-        <v> com vários outros gaviões, pois apresentam a coloração marrom-carijó. Já 
+        <v xml:space="preserve"> com vários outros gaviões, pois apresentam a coloração marrom-carijó. Já 
 os adultos apresentam a ponta do </v>
       </c>
       <c r="O58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
         <v>bico</v>
       </c>
       <c r="P58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," negra com a base amarelada; a cabeça e a parte superior das asas são 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," negra com a base amarelada; a cabeça e a parte superior das asas são 
 amarronzadas, mas tornam-se cinza à medida que a ave amadurece. O peito é 
 ferruginoso e apresenta largas estrias verticais. O ventre e as pernas são 
 brancos, com primoroso barrado fe"&amp;"rrugíneo. A base da cauda é branca, mas 
@@ -5455,7 +5589,7 @@
 negras bem visíveis na extremidade da cauda. Quando em voo, suas asas são 
 largas e de comprimento médio. A coloração básica da parte inferior"&amp;" das 
 asas é o bege estriado com finas listras escuras.")</f>
-        <v> negra com a base amarelada; a cabeça e a parte superior das asas são 
+        <v xml:space="preserve"> negra com a base amarelada; a cabeça e a parte superior das asas são 
 amarronzadas, mas tornam-se cinza à medida que a ave amadurece. O peito é 
 ferruginoso e apresenta largas estrias verticais. O ventre e as pernas são 
 brancos, com primoroso barrado ferrugíneo. A base da cauda é branca, mas 
@@ -5466,9 +5600,9 @@
       </c>
       <c r="Q58" s="17"/>
       <c r="R58" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico recurvado escuro com cere amarela. A íris é clara. Os tarsos e pés 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Bico recurvado escuro com cere amarela. A íris é clara. Os tarsos e pés 
 são amarelos e apresentam garras escuras. ")</f>
-        <v> Bico recurvado escuro com cere amarela. A íris é clara. Os tarsos e pés 
+        <v xml:space="preserve"> Bico recurvado escuro com cere amarela. A íris é clara. Os tarsos e pés 
 são amarelos e apresentam garras escuras. </v>
       </c>
       <c r="S58" s="17"/>
@@ -5476,7 +5610,7 @@
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:35" ht="15.75" customHeight="1">
       <c r="A59" s="25" t="s">
         <v>287</v>
       </c>
@@ -5486,9 +5620,8 @@
       <c r="C59" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D59" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C59 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/1/10/TF_Wildpark_Johannismuehle_03-14_img11.jpg/330px-TF_Wildpark_Johannismuehle_03-14_img11.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/1/10/TF_Wildpark_Johannismuehle_03-14_img11.jpg/330px-TF_Wildpark_Johannismuehle_03-14_img11.jpg</v>
+      <c r="D59" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>290</v>
@@ -5506,50 +5639,50 @@
         <v>17</v>
       </c>
       <c r="J59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B59,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 48 a 56 centímetros de comprimento e tem envergadura de 115 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B59,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede de 48 a 56 centímetros de comprimento e tem envergadura de 115 
 centímetros. O macho pesa 725 gramas e a fêmea entre 834 e 1047 gramas. As ")</f>
-        <v> Mede de 48 a 56 centímetros de comprimento e tem envergadura de 115 
+        <v xml:space="preserve"> Mede de 48 a 56 centímetros de comprimento e tem envergadura de 115 
 centímetros. O macho pesa 725 gramas e a fêmea entre 834 e 1047 gramas. As </v>
       </c>
       <c r="K59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"subespécies")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"subespécies")</f>
         <v>subespécies</v>
       </c>
       <c r="L59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," norte-americanas são maiores que as do Brasil, e além disso os indivíduos 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," norte-americanas são maiores que as do Brasil, e além disso os indivíduos 
 brasileiros possuem uma ")</f>
-        <v> norte-americanas são maiores que as do Brasil, e além disso os indivíduos 
+        <v xml:space="preserve"> norte-americanas são maiores que as do Brasil, e além disso os indivíduos 
 brasileiros possuem uma </v>
       </c>
       <c r="M59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem mais clara")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"plumagem mais clara")</f>
         <v>plumagem mais clara</v>
       </c>
       <c r="N59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", enquanto as norte-americanas possuem uma coloração castanha bem escura.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", enquanto as norte-americanas possuem uma coloração castanha bem escura.")</f>
         <v>, enquanto as norte-americanas possuem uma coloração castanha bem escura.</v>
       </c>
       <c r="O59" s="17"/>
       <c r="P59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Espécie bastante arisca, não permite a aproximação de humanos com 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Espécie bastante arisca, não permite a aproximação de humanos com 
 facilidade. Tem a plumagem castanho-escura, com as coberteiras, escapulares 
 (nas asas) e das coxas, com coloração castanho-avermelhada. As penas ")</f>
-        <v> Espécie bastante arisca, não permite a aproximação de humanos com 
+        <v xml:space="preserve"> Espécie bastante arisca, não permite a aproximação de humanos com 
 facilidade. Tem a plumagem castanho-escura, com as coberteiras, escapulares 
 (nas asas) e das coxas, com coloração castanho-avermelhada. As penas </v>
       </c>
       <c r="Q59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cloacais")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cloacais")</f>
         <v>cloacais</v>
       </c>
       <c r="R59" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e a extremidade da cauda têm cor branca. A fêmea tem plumagem semelhante à 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e a extremidade da cauda têm cor branca. A fêmea tem plumagem semelhante à 
 do macho, mas é maior. ")</f>
-        <v> e a extremidade da cauda têm cor branca. A fêmea tem plumagem semelhante à 
+        <v xml:space="preserve"> e a extremidade da cauda têm cor branca. A fêmea tem plumagem semelhante à 
 do macho, mas é maior. </v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:35" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>292</v>
       </c>
@@ -5559,9 +5692,8 @@
       <c r="C60" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D60" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C60 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/d/da/Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg/280px-Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/d/da/Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg/280px-Bicoloured_Hawk_%28Accipiter_bicolor%29_with_prey.jpg</v>
+      <c r="D60" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>295</v>
@@ -5579,49 +5711,49 @@
         <v>17</v>
       </c>
       <c r="J60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B60,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 29-35 cm de comprimento e envergadura de 60-70 cm (Del Hoyo et al. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B60,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 29-35 cm de comprimento e envergadura de 60-70 cm (Del Hoyo et al. 
 1994, ")</f>
-        <v> Mede 29-35 cm de comprimento e envergadura de 60-70 cm (Del Hoyo et al. 
+        <v xml:space="preserve"> Mede 29-35 cm de comprimento e envergadura de 60-70 cm (Del Hoyo et al. 
 1994, </v>
       </c>
       <c r="K60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apud")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"apud")</f>
         <v>apud</v>
       </c>
       <c r="L60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Menq, 2016). O adulto apresenta plumagem cinza na parte ventral e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Menq, 2016). O adulto apresenta plumagem cinza na parte ventral e 
 cinza-escuro no dorso, com calções de cor ferrugem, cera e tarsos 
 amarelados, e íris que varia do castanho ao marrom-avermelhado. Além disso, 
 apresenta a garganta clara com uma listra v"&amp;"ertical escura, característica 
 que serve para diferenciá-lo do ")</f>
-        <v> Menq, 2016). O adulto apresenta plumagem cinza na parte ventral e 
+        <v xml:space="preserve"> Menq, 2016). O adulto apresenta plumagem cinza na parte ventral e 
 cinza-escuro no dorso, com calções de cor ferrugem, cera e tarsos 
 amarelados, e íris que varia do castanho ao marrom-avermelhado. Além disso, 
 apresenta a garganta clara com uma listra vertical escura, característica 
 que serve para diferenciá-lo do </v>
       </c>
       <c r="M60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gavião-bombachinha-grande")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gavião-bombachinha-grande")</f>
         <v>gavião-bombachinha-grande</v>
       </c>
       <c r="N60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
-        <v> (</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," (")</f>
+        <v xml:space="preserve"> (</v>
       </c>
       <c r="O60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Accipiter bicolor")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Accipiter bicolor")</f>
         <v>Accipiter bicolor</v>
       </c>
       <c r="P60" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). O jovem apresenta peito creme salpicado de marrom, calções ferrugíneos, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). O jovem apresenta peito creme salpicado de marrom, calções ferrugíneos, 
 dorso marrom escuro e íris mais clara, variando do amarelo ao castanho. ")</f>
-        <v>). O jovem apresenta peito creme salpicado de marrom, calções ferrugíneos, 
+        <v xml:space="preserve">). O jovem apresenta peito creme salpicado de marrom, calções ferrugíneos, 
 dorso marrom escuro e íris mais clara, variando do amarelo ao castanho. </v>
       </c>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:35" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>297</v>
       </c>
@@ -5631,9 +5763,8 @@
       <c r="C61" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C61 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/0/00/Ramphodon_naevius_1.jpg/330px-Ramphodon_naevius_1.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/0/00/Ramphodon_naevius_1.jpg/330px-Ramphodon_naevius_1.jpg</v>
+      <c r="D61" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>300</v>
@@ -5651,70 +5782,70 @@
         <v>17</v>
       </c>
       <c r="J61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B61,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 14 e 16 centímetros de comprimento e pesa entre 5,3 e 9 gramas 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B61,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 14 e 16 centímetros de comprimento e pesa entre 5,3 e 9 gramas 
 (Hinkelmann, 2013), sendo o maior beija-flor da ")</f>
-        <v> Mede entre 14 e 16 centímetros de comprimento e pesa entre 5,3 e 9 gramas 
+        <v xml:space="preserve"> Mede entre 14 e 16 centímetros de comprimento e pesa entre 5,3 e 9 gramas 
 (Hinkelmann, 2013), sendo o maior beija-flor da </v>
       </c>
       <c r="K61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mata Atlântica")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mata Atlântica")</f>
         <v>Mata Atlântica</v>
       </c>
       <c r="L61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e um dos maiores do mundo. Partes superiores marrom esverdeadas; ")</f>
-        <v> e um dos maiores do mundo. Partes superiores marrom esverdeadas; </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e um dos maiores do mundo. Partes superiores marrom esverdeadas; ")</f>
+        <v xml:space="preserve"> e um dos maiores do mundo. Partes superiores marrom esverdeadas; </v>
       </c>
       <c r="M61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
         <v>cabeça</v>
       </c>
       <c r="N61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escura; garganta e pescoço laranja com uma listra escura no meio; face 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escura; garganta e pescoço laranja com uma listra escura no meio; face 
 laranja, com larga ")</f>
-        <v> escura; garganta e pescoço laranja com uma listra escura no meio; face 
+        <v xml:space="preserve"> escura; garganta e pescoço laranja com uma listra escura no meio; face 
 laranja, com larga </v>
       </c>
       <c r="O61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa transocular")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa transocular")</f>
         <v>faixa transocular</v>
       </c>
       <c r="P61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," preta e estreita ")</f>
-        <v> preta e estreita </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," preta e estreita ")</f>
+        <v xml:space="preserve"> preta e estreita </v>
       </c>
       <c r="Q61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa superciliar")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa superciliar")</f>
         <v>faixa superciliar</v>
       </c>
       <c r="R61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pardacenta, sendo mais clara no macho; partes inferiores pardacentas, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pardacenta, sendo mais clara no macho; partes inferiores pardacentas, 
 amplamente estriadas de negro, principalmente o peito. Asas pretas; cauda 
 larga, não prolongada com as ")</f>
-        <v> pardacenta, sendo mais clara no macho; partes inferiores pardacentas, 
+        <v xml:space="preserve"> pardacenta, sendo mais clara no macho; partes inferiores pardacentas, 
 amplamente estriadas de negro, principalmente o peito. Asas pretas; cauda 
 larga, não prolongada com as </v>
       </c>
       <c r="S61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
         <v>retrizes</v>
       </c>
       <c r="T61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," centrais pretas e as laterais pardo-claras. Bico forte de base larga, reto 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," centrais pretas e as laterais pardo-claras. Bico forte de base larga, reto 
 e terminando num gancho no macho e suavemente curvo na fêmea, o que pode 
 ser explicado por diferença de hábitos alimentares; mandíbula amarela e 
 maxila preta.")</f>
-        <v> centrais pretas e as laterais pardo-claras. Bico forte de base larga, reto 
+        <v xml:space="preserve"> centrais pretas e as laterais pardo-claras. Bico forte de base larga, reto 
 e terminando num gancho no macho e suavemente curvo na fêmea, o que pode 
 ser explicado por diferença de hábitos alimentares; mandíbula amarela e 
 maxila preta.</v>
       </c>
       <c r="U61" s="17"/>
       <c r="V61" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Fêmea e imaturos tem uma mácula menor na garganta. ")</f>
-        <v> Fêmea e imaturos tem uma mácula menor na garganta. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Fêmea e imaturos tem uma mácula menor na garganta. ")</f>
+        <v xml:space="preserve"> Fêmea e imaturos tem uma mácula menor na garganta. </v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:35" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>302</v>
       </c>
@@ -5724,9 +5855,8 @@
       <c r="C62" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D62" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C62 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/3/3f/Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg/280px-Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/3/3f/Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg/280px-Rufous-breasted_hermit_%28_Glaucis_hirsutus_insularum%29.jpg</v>
+      <c r="D62" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>305</v>
@@ -5744,48 +5874,48 @@
         <v>17</v>
       </c>
       <c r="J62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B62,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 13 centímetros de comprimento e pesa 7 gramas, ")</f>
-        <v> Mede 13 centímetros de comprimento e pesa 7 gramas, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B62,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede 13 centímetros de comprimento e pesa 7 gramas, ")</f>
+        <v xml:space="preserve"> Mede 13 centímetros de comprimento e pesa 7 gramas, </v>
       </c>
       <c r="K62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
         <v>bico</v>
       </c>
       <c r="L62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de 3 centímetros. É robusto, de bico longo e curvo, com mandíbula 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," de 3 centímetros. É robusto, de bico longo e curvo, com mandíbula 
 amarelo-claro e maxila negra. Partes superiores verde-bronzeadas; ")</f>
-        <v> de 3 centímetros. É robusto, de bico longo e curvo, com mandíbula 
+        <v xml:space="preserve"> de 3 centímetros. É robusto, de bico longo e curvo, com mandíbula 
 amarelo-claro e maxila negra. Partes superiores verde-bronzeadas; </v>
       </c>
       <c r="M62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa pós ocular")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa pós ocular")</f>
         <v>faixa pós ocular</v>
       </c>
       <c r="N62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escurecida e estreita ")</f>
-        <v> escurecida e estreita </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," escurecida e estreita ")</f>
+        <v xml:space="preserve"> escurecida e estreita </v>
       </c>
       <c r="O62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa superciliar")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"faixa superciliar")</f>
         <v>faixa superciliar</v>
       </c>
       <c r="P62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," branca; partes inferiores ferrugíneas, sendo mais intenso na garganta e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," branca; partes inferiores ferrugíneas, sendo mais intenso na garganta e 
 peito superior. ")</f>
-        <v> branca; partes inferiores ferrugíneas, sendo mais intenso na garganta e 
+        <v xml:space="preserve"> branca; partes inferiores ferrugíneas, sendo mais intenso na garganta e 
 peito superior. </v>
       </c>
       <c r="Q62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Retrizes")</f>
         <v>Retrizes</v>
       </c>
       <c r="R62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," castanhas com larga faixa subterminal negra e ponta branca sendo as 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," castanhas com larga faixa subterminal negra e ponta branca sendo as 
 centrais verdes e não alongadas. A fêmea é mais clara ventralmente e tem o 
 bico mais curvo que o macho. Pousado, ou mesmo a pairar em voo, pode ser 
 visto balançando insistentemente a "&amp;"cauda para frente e para trás, fazendo 
 jus a seu principal nome popular.")</f>
-        <v> castanhas com larga faixa subterminal negra e ponta branca sendo as 
+        <v xml:space="preserve"> castanhas com larga faixa subterminal negra e ponta branca sendo as 
 centrais verdes e não alongadas. A fêmea é mais clara ventralmente e tem o 
 bico mais curvo que o macho. Pousado, ou mesmo a pairar em voo, pode ser 
 visto balançando insistentemente a cauda para frente e para trás, fazendo 
@@ -5793,13 +5923,13 @@
       </c>
       <c r="S62" s="17"/>
       <c r="T62" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O juvenil da espécie foi erroneamente descrita como uma espécie separada, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O juvenil da espécie foi erroneamente descrita como uma espécie separada, 
 o Threnetes grzimeki. ")</f>
-        <v> O juvenil da espécie foi erroneamente descrita como uma espécie separada, 
+        <v xml:space="preserve"> O juvenil da espécie foi erroneamente descrita como uma espécie separada, 
 o Threnetes grzimeki. </v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:35" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>306</v>
       </c>
@@ -5809,9 +5939,8 @@
       <c r="C63" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D63" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C63 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/e/ef/ThaluraniaGlaucopis200805DarioSanches.jpg/280px-ThaluraniaGlaucopis200805DarioSanches.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/e/ef/ThaluraniaGlaucopis200805DarioSanches.jpg/280px-ThaluraniaGlaucopis200805DarioSanches.jpg</v>
+      <c r="D63" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>309</v>
@@ -5829,52 +5958,52 @@
         <v>17</v>
       </c>
       <c r="J63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B63,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 11,1 centímetros. Verde brilhante de ")</f>
-        <v> Mede aproximadamente 11,1 centímetros. Verde brilhante de </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B63,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede aproximadamente 11,1 centímetros. Verde brilhante de ")</f>
+        <v xml:space="preserve"> Mede aproximadamente 11,1 centímetros. Verde brilhante de </v>
       </c>
       <c r="K63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boné")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boné")</f>
         <v>boné</v>
       </c>
       <c r="L63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," azul-violeta, tufos do ")</f>
-        <v> azul-violeta, tufos do </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," azul-violeta, tufos do ")</f>
+        <v xml:space="preserve"> azul-violeta, tufos do </v>
       </c>
       <c r="M63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"crisso")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"crisso")</f>
         <v>crisso</v>
       </c>
       <c r="N63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos, ")</f>
-        <v> brancos, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos, ")</f>
+        <v xml:space="preserve"> brancos, </v>
       </c>
       <c r="O63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
         <v>retrizes</v>
       </c>
       <c r="P63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," azul-aço, bico negro. A fêmea apresenta as partes inferiores brancas 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," azul-aço, bico negro. A fêmea apresenta as partes inferiores brancas 
 sujas, retrizes laterais com pontas brancas, testa e lado inferior às vezes 
 lavados de canela.")</f>
-        <v> azul-aço, bico negro. A fêmea apresenta as partes inferiores brancas 
+        <v xml:space="preserve"> azul-aço, bico negro. A fêmea apresenta as partes inferiores brancas 
 sujas, retrizes laterais com pontas brancas, testa e lado inferior às vezes 
 lavados de canela.</v>
       </c>
       <c r="Q63" s="17"/>
       <c r="R63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Sua ")</f>
-        <v> Sua </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Sua ")</f>
+        <v xml:space="preserve"> Sua </v>
       </c>
       <c r="S63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"manifestações sonora")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"manifestações sonora")</f>
         <v>manifestações sonora</v>
       </c>
       <c r="T63" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," se dá pelo canto: “tirip-trip-trip-ti-tri…”. ")</f>
-        <v> se dá pelo canto: “tirip-trip-trip-ti-tri…”. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," se dá pelo canto: “tirip-trip-trip-ti-tri…”. ")</f>
+        <v xml:space="preserve"> se dá pelo canto: “tirip-trip-trip-ti-tri…”. </v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:35" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>310</v>
       </c>
@@ -5884,9 +6013,8 @@
       <c r="C64" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C64 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Clytolaema_rubricauda_female.jpg/330px-Clytolaema_rubricauda_female.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Clytolaema_rubricauda_female.jpg/330px-Clytolaema_rubricauda_female.jpg</v>
+      <c r="D64" s="9" t="s">
+        <v>394</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>313</v>
@@ -5904,39 +6032,39 @@
         <v>17</v>
       </c>
       <c r="J64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B64,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 10,8 e 11,3 centímetros de comprimento. O macho da espécie pesa 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B64,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 10,8 e 11,3 centímetros de comprimento. O macho da espécie pesa 
 entre 7 e 9,2 gramas e a fêmea pesa entre 5,9 e 7,1 gramas. (Schuchmann, 
 2016).")</f>
-        <v> Mede entre 10,8 e 11,3 centímetros de comprimento. O macho da espécie pesa 
+        <v xml:space="preserve"> Mede entre 10,8 e 11,3 centímetros de comprimento. O macho da espécie pesa 
 entre 7 e 9,2 gramas e a fêmea pesa entre 5,9 e 7,1 gramas. (Schuchmann, 
 2016).</v>
       </c>
       <c r="K64" s="17"/>
       <c r="L64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta acentuado ")</f>
-        <v> Apresenta acentuado </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Apresenta acentuado ")</f>
+        <v xml:space="preserve"> Apresenta acentuado </v>
       </c>
       <c r="M64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
         <v>dimorfismo sexual</v>
       </c>
       <c r="N64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),".")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),".")</f>
         <v>.</v>
       </c>
       <c r="O64" s="17"/>
       <c r="P64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é predominantemente verde, com a cauda avermelhada que lhe dá o 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," O macho é predominantemente verde, com a cauda avermelhada que lhe dá o 
 epíteto específico de ")</f>
-        <v> O macho é predominantemente verde, com a cauda avermelhada que lhe dá o 
+        <v xml:space="preserve"> O macho é predominantemente verde, com a cauda avermelhada que lhe dá o 
 epíteto específico de </v>
       </c>
       <c r="Q64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rubricauda")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rubricauda")</f>
         <v>rubricauda</v>
       </c>
       <c r="R64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", e se destaca pela coloração rubi do papo e o verde cintilante da fronte e 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", e se destaca pela coloração rubi do papo e o verde cintilante da fronte e 
 peito. No sombreado da mata, quando em repouso, aparenta uma coloração 
 negra destacando as manchas brancas pós-oculares.")</f>
         <v>, e se destaca pela coloração rubi do papo e o verde cintilante da fronte e 
@@ -5945,19 +6073,19 @@
       </c>
       <c r="S64" s="17"/>
       <c r="T64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea tem coloração canela na parte de baixo do corpo, ")</f>
-        <v> A fêmea tem coloração canela na parte de baixo do corpo, </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," A fêmea tem coloração canela na parte de baixo do corpo, ")</f>
+        <v xml:space="preserve"> A fêmea tem coloração canela na parte de baixo do corpo, </v>
       </c>
       <c r="U64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça")</f>
         <v>cabeça</v>
       </c>
       <c r="V64" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e dorso verdes, e também apresenta as manchas brancas por trás dos olhos. ")</f>
-        <v> e dorso verdes, e também apresenta as manchas brancas por trás dos olhos. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," e dorso verdes, e também apresenta as manchas brancas por trás dos olhos. ")</f>
+        <v xml:space="preserve"> e dorso verdes, e também apresenta as manchas brancas por trás dos olhos. </v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1">
       <c r="A65" s="25" t="s">
         <v>314</v>
       </c>
@@ -5967,9 +6095,8 @@
       <c r="C65" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D65" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C65 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/59/Aphantochroa_cirrochloris-3.jpg/330px-Aphantochroa_cirrochloris-3.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/59/Aphantochroa_cirrochloris-3.jpg/330px-Aphantochroa_cirrochloris-3.jpg</v>
+      <c r="D65" s="9" t="s">
+        <v>395</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>317</v>
@@ -5987,21 +6114,21 @@
         <v>17</v>
       </c>
       <c r="J65" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B65,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui o ")</f>
-        <v> Possui o </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B65,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Possui o ")</f>
+        <v xml:space="preserve"> Possui o </v>
       </c>
       <c r="K65" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"corpo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"corpo")</f>
         <v>corpo</v>
       </c>
       <c r="L65" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," cinza-esverdeado. Cabeça e partes superiores verde-acobreadas; face 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," cinza-esverdeado. Cabeça e partes superiores verde-acobreadas; face 
 cinza-esverdeada com uma pequena mancha pós-ocular branca; bico preto 
 ligeiramente curvado para baixo. Partes inferiores cinza-escuras com tons 
 de verde no pescoço e uma mácula uropig"&amp;"iana e tufos no crisso brancos. 
 Cauda grande e asas largas de cor cinza-escura quase preta. Tamanho 12 cm. 
 A fêmea e o macho têm a mesma aparência, no entanto ela é um pouco menor. ")</f>
-        <v> cinza-esverdeado. Cabeça e partes superiores verde-acobreadas; face 
+        <v xml:space="preserve"> cinza-esverdeado. Cabeça e partes superiores verde-acobreadas; face 
 cinza-esverdeada com uma pequena mancha pós-ocular branca; bico preto 
 ligeiramente curvado para baixo. Partes inferiores cinza-escuras com tons 
 de verde no pescoço e uma mácula uropigiana e tufos no crisso brancos. 
@@ -6009,7 +6136,7 @@
 A fêmea e o macho têm a mesma aparência, no entanto ela é um pouco menor. </v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>318</v>
       </c>
@@ -6019,9 +6146,8 @@
       <c r="C66" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D66" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C66 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg/280px-Florisuga_fusca_-Reserva_Guainumbi%2C_Sao_Luis_do_Paraitinga%2C_Sao_Paulo%2C_Brasil-8.jpg</v>
+      <c r="D66" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>321</v>
@@ -6039,46 +6165,46 @@
         <v>17</v>
       </c>
       <c r="J66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B66,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Esta espécie de beija-flor possui em média 12,6 centímetros. O colorido 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B66,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Esta espécie de beija-flor possui em média 12,6 centímetros. O colorido 
 contrastante vistoso das ")</f>
-        <v> Esta espécie de beija-flor possui em média 12,6 centímetros. O colorido 
+        <v xml:space="preserve"> Esta espécie de beija-flor possui em média 12,6 centímetros. O colorido 
 contrastante vistoso das </v>
       </c>
       <c r="K66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
         <v>retrizes</v>
       </c>
       <c r="L66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é exibido quando o pássaro expande a cauda em um leque branco cortado em 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é exibido quando o pássaro expande a cauda em um leque branco cortado em 
 duas metades pelas centrais negras ou quando abre e fecha rápido as 
 caudais. O branco da cauda continua até os flancos e forma uma faixa sobre 
 o crisso.")</f>
-        <v> é exibido quando o pássaro expande a cauda em um leque branco cortado em 
+        <v xml:space="preserve"> é exibido quando o pássaro expande a cauda em um leque branco cortado em 
 duas metades pelas centrais negras ou quando abre e fecha rápido as 
 caudais. O branco da cauda continua até os flancos e forma uma faixa sobre 
 o crisso.</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os indivíduos jovens são negros quase que totalmente manchados de pardo. 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Os indivíduos jovens são negros quase que totalmente manchados de pardo. 
 Apresentam uma faixa maxilar castanha, cauda canela ou negra, sendo brancas 
 somente as ")</f>
-        <v> Os indivíduos jovens são negros quase que totalmente manchados de pardo. 
+        <v xml:space="preserve"> Os indivíduos jovens são negros quase que totalmente manchados de pardo. 
 Apresentam uma faixa maxilar castanha, cauda canela ou negra, sendo brancas 
 somente as </v>
       </c>
       <c r="O66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"retrizes")</f>
         <v>retrizes</v>
       </c>
       <c r="P66" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," laterais.")</f>
-        <v> laterais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," laterais.")</f>
+        <v xml:space="preserve"> laterais.</v>
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>322</v>
       </c>
@@ -6088,9 +6214,8 @@
       <c r="C67" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C67 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg/330px-Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/a/ac/Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg/330px-Eupetomena_macroura_-Piraju%2C_Sao_Paulo%2C_Brazil-8.jpg</v>
+      <c r="D67" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>325</v>
@@ -6108,47 +6233,47 @@
         <v>17</v>
       </c>
       <c r="J67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B67,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 15 e 18 centímetros de comprimento, sendo um dos maiores 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B67,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede entre 15 e 18 centímetros de comprimento, sendo um dos maiores 
 beija-flores brasileiros, pesando em torno de 6-11 gramas. ")</f>
-        <v> Mede entre 15 e 18 centímetros de comprimento, sendo um dos maiores 
+        <v xml:space="preserve"> Mede entre 15 e 18 centímetros de comprimento, sendo um dos maiores 
 beija-flores brasileiros, pesando em torno de 6-11 gramas. </v>
       </c>
       <c r="K67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cabeça")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Cabeça")</f>
         <v>Cabeça</v>
       </c>
       <c r="L67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", pescoço e parte superior do tórax de um profundo azul violeta; restante 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", pescoço e parte superior do tórax de um profundo azul violeta; restante 
 da plumagem verde-escuro iridescente. Pequena mancha branca atrás dos 
 olhos; ")</f>
-        <v>, pescoço e parte superior do tórax de um profundo azul violeta; restante 
+        <v xml:space="preserve">, pescoço e parte superior do tórax de um profundo azul violeta; restante 
 da plumagem verde-escuro iridescente. Pequena mancha branca atrás dos 
 olhos; </v>
       </c>
       <c r="M67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rêmiges")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rêmiges")</f>
         <v>rêmiges</v>
       </c>
       <c r="N67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," castanho-escuro; raques das primárias externas alargadas, embora sejam bem 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," castanho-escuro; raques das primárias externas alargadas, embora sejam bem 
 menos evidentes que as espécies do gênero ")</f>
-        <v> castanho-escuro; raques das primárias externas alargadas, embora sejam bem 
+        <v xml:space="preserve"> castanho-escuro; raques das primárias externas alargadas, embora sejam bem 
 menos evidentes que as espécies do gênero </v>
       </c>
       <c r="O67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Campylopterus")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Campylopterus")</f>
         <v>Campylopterus</v>
       </c>
       <c r="P67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"; cauda azul-escuro; ")</f>
-        <v>; cauda azul-escuro; </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"; cauda azul-escuro; ")</f>
+        <v xml:space="preserve">; cauda azul-escuro; </v>
       </c>
       <c r="Q67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"calções")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"calções")</f>
         <v>calções</v>
       </c>
       <c r="R67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos; bico ligeiramente curvado para baixo, preto com 2,2 centímetros 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," brancos; bico ligeiramente curvado para baixo, preto com 2,2 centímetros 
 de comprimento. Tem como característica principal a cauda longa e 
 profundamente furcada que toma quase 2/3 do seu tamanho total. 
 Esporadicamente apresenta as penas azuladas da fr"&amp;"onte tingidas de branco, 
@@ -6157,7 +6282,7 @@
 menor e mais pálida. O imaturo é como a fêmea, mas a cabeça é 
 particularmente mai"&amp;"s pálida e tingida de marrom. Os beija-flores têm o mais 
 acelerado ")</f>
-        <v> brancos; bico ligeiramente curvado para baixo, preto com 2,2 centímetros 
+        <v xml:space="preserve"> brancos; bico ligeiramente curvado para baixo, preto com 2,2 centímetros 
 de comprimento. Tem como característica principal a cauda longa e 
 profundamente furcada que toma quase 2/3 do seu tamanho total. 
 Esporadicamente apresenta as penas azuladas da fronte tingidas de branco, 
@@ -6168,45 +6293,45 @@
 acelerado </v>
       </c>
       <c r="S67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"metabolismo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"metabolismo")</f>
         <v>metabolismo</v>
       </c>
       <c r="T67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," entre as aves. Podemos dizer que eles vivem em outro ritmo, pois tudo é 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," entre as aves. Podemos dizer que eles vivem em outro ritmo, pois tudo é 
 acelerado. Quando em voo, podem bater as asas dezenas de vezes por segundo. 
 O ")</f>
-        <v> entre as aves. Podemos dizer que eles vivem em outro ritmo, pois tudo é 
+        <v xml:space="preserve"> entre as aves. Podemos dizer que eles vivem em outro ritmo, pois tudo é 
 acelerado. Quando em voo, podem bater as asas dezenas de vezes por segundo. 
 O </v>
       </c>
       <c r="U67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"canto")</f>
         <v>canto</v>
       </c>
       <c r="V67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é muito agudo e rápido, parecendo um simples assovio para nossos ouvidos, 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," é muito agudo e rápido, parecendo um simples assovio para nossos ouvidos, 
 mas quem estuda ")</f>
-        <v> é muito agudo e rápido, parecendo um simples assovio para nossos ouvidos, 
+        <v xml:space="preserve"> é muito agudo e rápido, parecendo um simples assovio para nossos ouvidos, 
 mas quem estuda </v>
       </c>
       <c r="W67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bioacústica")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bioacústica")</f>
         <v>bioacústica</v>
       </c>
       <c r="X67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," sabe que quando a vocalização destas aves é analisada com cuidado em um ")</f>
-        <v> sabe que quando a vocalização destas aves é analisada com cuidado em um </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," sabe que quando a vocalização destas aves é analisada com cuidado em um ")</f>
+        <v xml:space="preserve"> sabe que quando a vocalização destas aves é analisada com cuidado em um </v>
       </c>
       <c r="Y67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sonograma")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sonograma")</f>
         <v>sonograma</v>
       </c>
       <c r="Z67" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", esta mostra-se muito complexa e até melodiosa. ")</f>
-        <v>, esta mostra-se muito complexa e até melodiosa. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),", esta mostra-se muito complexa e até melodiosa. ")</f>
+        <v xml:space="preserve">, esta mostra-se muito complexa e até melodiosa. </v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>326</v>
       </c>
@@ -6216,9 +6341,8 @@
       <c r="C68" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C68 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/8/8b/Anthracothorax_nigricollis_1152.jpg/330px-Anthracothorax_nigricollis_1152.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/8/8b/Anthracothorax_nigricollis_1152.jpg/330px-Anthracothorax_nigricollis_1152.jpg</v>
+      <c r="D68" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>329</v>
@@ -6236,23 +6360,23 @@
         <v>17</v>
       </c>
       <c r="J68" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B68,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," A fêmea e o macho são de plumagens tão diferentes que parecem ser duas 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B68,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," A fêmea e o macho são de plumagens tão diferentes que parecem ser duas 
 espécies separadas (")</f>
-        <v> A fêmea e o macho são de plumagens tão diferentes que parecem ser duas 
+        <v xml:space="preserve"> A fêmea e o macho são de plumagens tão diferentes que parecem ser duas 
 espécies separadas (</v>
       </c>
       <c r="K68" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dimorfismo sexual")</f>
         <v>dimorfismo sexual</v>
       </c>
       <c r="L68" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). ")</f>
-        <v>). </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"). ")</f>
+        <v xml:space="preserve">). </v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1">
       <c r="A69" s="14" t="s">
         <v>330</v>
       </c>
@@ -6262,9 +6386,8 @@
       <c r="C69" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C69 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/5/58/Lophornis_chalybeus_1.jpg/280px-Lophornis_chalybeus_1.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/5/58/Lophornis_chalybeus_1.jpg/280px-Lophornis_chalybeus_1.jpg</v>
+      <c r="D69" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>333</v>
@@ -6282,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="J69" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B69,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," O topetinho-verde é um pequeno beija-flor que mede entre 7,5 a 8,5 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B69,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," O topetinho-verde é um pequeno beija-flor que mede entre 7,5 a 8,5 
 centímetros e pesa apenas 3 gramas. Os machos desta espécie são elegantes e 
 apresentam longos tufos de penas verdes com as pontas brancas na garganta. 
 Quando eriçados, mostram bela man"&amp;"cha verde iridescente atrás dos olhos. 
@@ -6294,7 +6417,7 @@
 olhos esbranquiçada. Ambos os sexos exibem uma banda branca no uropígio, 
 como muitos outros do gênero, qu"&amp;"e para o macho é branca e para a fêmea é 
 amarronzada. ")</f>
-        <v> O topetinho-verde é um pequeno beija-flor que mede entre 7,5 a 8,5 
+        <v xml:space="preserve"> O topetinho-verde é um pequeno beija-flor que mede entre 7,5 a 8,5 
 centímetros e pesa apenas 3 gramas. Os machos desta espécie são elegantes e 
 apresentam longos tufos de penas verdes com as pontas brancas na garganta. 
 Quando eriçados, mostram bela mancha verde iridescente atrás dos olhos. 
@@ -6325,7 +6448,7 @@
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>334</v>
       </c>
@@ -6354,22 +6477,22 @@
         <v>17</v>
       </c>
       <c r="J70" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B70,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 33 cm de comprimento e pesa por volta de 170 g. O macho 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B70,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Mede cerca de 33 cm de comprimento e pesa por volta de 170 g. O macho 
 apresenta ")</f>
-        <v> Mede cerca de 33 cm de comprimento e pesa por volta de 170 g. O macho 
+        <v xml:space="preserve"> Mede cerca de 33 cm de comprimento e pesa por volta de 170 g. O macho 
 apresenta </v>
       </c>
       <c r="K70" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça, garganta e peito")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cabeça, garganta e peito")</f>
         <v>cabeça, garganta e peito</v>
       </c>
       <c r="L70" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pretos, os quais são marrons na fêmea. Tem de três a cinco riscos 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pretos, os quais são marrons na fêmea. Tem de três a cinco riscos 
 transversais no bico, que variam de formato de indivíduo para indivíduo. 
 Tem um tufo de penas pós-oculares de cor amarelo-ouro. Possui uma grande 
 mancha escura na íris, anterior e poste"&amp;"rior à pupila, comum ao gênero 
 Selenidera. ")</f>
-        <v> pretos, os quais são marrons na fêmea. Tem de três a cinco riscos 
+        <v xml:space="preserve"> pretos, os quais são marrons na fêmea. Tem de três a cinco riscos 
 transversais no bico, que variam de formato de indivíduo para indivíduo. 
 Tem um tufo de penas pós-oculares de cor amarelo-ouro. Possui uma grande 
 mancha escura na íris, anterior e posterior à pupila, comum ao gênero 
@@ -6380,7 +6503,7 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>339</v>
       </c>
@@ -6390,9 +6513,8 @@
       <c r="C71" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D71" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTXML(C71 , ""//*[@id='mw-content-text']/div/table/tbody/tr/td/div/span/a/img/@src"",)"),"//upload.wikimedia.org/wikipedia/commons/thumb/d/de/Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg/330px-Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg")</f>
-        <v>//upload.wikimedia.org/wikipedia/commons/thumb/d/de/Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg/330px-Ramphastos_dicolorus_-S%C3%A3o_Paulo-SP%2C_Brasil-8.jpg</v>
+      <c r="D71" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>342</v>
@@ -6410,43 +6532,43 @@
         <v>16</v>
       </c>
       <c r="J71" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B71,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem cerca de 42 a 48 centímetros, boa parte correspondem ao ")</f>
-        <v> Tem cerca de 42 a 48 centímetros, boa parte correspondem ao </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IFERROR(INDEX(IMPORTXML(B71,""//h2[@id='caracteristicas']/following-sibling::div/p""),1),""Not Found"")")," Tem cerca de 42 a 48 centímetros, boa parte correspondem ao ")</f>
+        <v xml:space="preserve"> Tem cerca de 42 a 48 centímetros, boa parte correspondem ao </v>
       </c>
       <c r="K71" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bico")</f>
         <v>bico</v>
       </c>
       <c r="L71" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". Pesa em torno de 265 g a 400 g. Apresenta papo amarelo e bico verde. O 
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),". Pesa em torno de 265 g a 400 g. Apresenta papo amarelo e bico verde. O 
 serrilhado do bico é bem desenvolvido e realçados pela cor vermelha 
 sangüínea. É o único ")</f>
-        <v>. Pesa em torno de 265 g a 400 g. Apresenta papo amarelo e bico verde. O 
+        <v xml:space="preserve">. Pesa em torno de 265 g a 400 g. Apresenta papo amarelo e bico verde. O 
 serrilhado do bico é bem desenvolvido e realçados pela cor vermelha 
 sangüínea. É o único </v>
       </c>
       <c r="M71" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ramphastos")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ramphastos")</f>
         <v>Ramphastos</v>
       </c>
       <c r="N71" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," a apresentar um ângulo acentuado na base da mandíbula inferior. ")</f>
-        <v> a apresentar um ângulo acentuado na base da mandíbula inferior. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," a apresentar um ângulo acentuado na base da mandíbula inferior. ")</f>
+        <v xml:space="preserve"> a apresentar um ângulo acentuado na base da mandíbula inferior. </v>
       </c>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7369,232 +7491,230 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="A3"/>
-    <hyperlink r:id="rId5" ref="B3"/>
-    <hyperlink r:id="rId6" ref="C3"/>
-    <hyperlink r:id="rId7" ref="A4"/>
-    <hyperlink r:id="rId8" ref="B4"/>
-    <hyperlink r:id="rId9" ref="C4"/>
-    <hyperlink r:id="rId10" ref="A5"/>
-    <hyperlink r:id="rId11" ref="B5"/>
-    <hyperlink r:id="rId12" ref="C5"/>
-    <hyperlink r:id="rId13" ref="D5"/>
-    <hyperlink r:id="rId14" ref="A6"/>
-    <hyperlink r:id="rId15" ref="B6"/>
-    <hyperlink r:id="rId16" ref="C6"/>
-    <hyperlink r:id="rId17" ref="A7"/>
-    <hyperlink r:id="rId18" ref="B7"/>
-    <hyperlink r:id="rId19" ref="C7"/>
-    <hyperlink r:id="rId20" ref="A8"/>
-    <hyperlink r:id="rId21" ref="B8"/>
-    <hyperlink r:id="rId22" ref="C8"/>
-    <hyperlink r:id="rId23" ref="D8"/>
-    <hyperlink r:id="rId24" ref="B9"/>
-    <hyperlink r:id="rId25" ref="C9"/>
-    <hyperlink r:id="rId26" ref="A10"/>
-    <hyperlink r:id="rId27" ref="B10"/>
-    <hyperlink r:id="rId28" ref="C10"/>
-    <hyperlink r:id="rId29" ref="A11"/>
-    <hyperlink r:id="rId30" ref="B11"/>
-    <hyperlink r:id="rId31" ref="C11"/>
-    <hyperlink r:id="rId32" ref="D11"/>
-    <hyperlink r:id="rId33" ref="A12"/>
-    <hyperlink r:id="rId34" ref="B12"/>
-    <hyperlink r:id="rId35" ref="C12"/>
-    <hyperlink r:id="rId36" ref="A13"/>
-    <hyperlink r:id="rId37" ref="B13"/>
-    <hyperlink r:id="rId38" ref="C13"/>
-    <hyperlink r:id="rId39" ref="A14"/>
-    <hyperlink r:id="rId40" ref="B14"/>
-    <hyperlink r:id="rId41" ref="C14"/>
-    <hyperlink r:id="rId42" ref="D14"/>
-    <hyperlink r:id="rId43" ref="A15"/>
-    <hyperlink r:id="rId44" ref="B15"/>
-    <hyperlink r:id="rId45" ref="C15"/>
-    <hyperlink r:id="rId46" ref="A16"/>
-    <hyperlink r:id="rId47" ref="B16"/>
-    <hyperlink r:id="rId48" ref="C16"/>
-    <hyperlink r:id="rId49" ref="A17"/>
-    <hyperlink r:id="rId50" ref="B17"/>
-    <hyperlink r:id="rId51" ref="C17"/>
-    <hyperlink r:id="rId52" ref="A18"/>
-    <hyperlink r:id="rId53" ref="B18"/>
-    <hyperlink r:id="rId54" ref="C18"/>
-    <hyperlink r:id="rId55" ref="A19"/>
-    <hyperlink r:id="rId56" ref="B19"/>
-    <hyperlink r:id="rId57" ref="C19"/>
-    <hyperlink r:id="rId58" ref="A20"/>
-    <hyperlink r:id="rId59" ref="B20"/>
-    <hyperlink r:id="rId60" ref="C20"/>
-    <hyperlink r:id="rId61" ref="D20"/>
-    <hyperlink r:id="rId62" ref="A21"/>
-    <hyperlink r:id="rId63" ref="B21"/>
-    <hyperlink r:id="rId64" ref="C21"/>
-    <hyperlink r:id="rId65" ref="D21"/>
-    <hyperlink r:id="rId66" ref="A22"/>
-    <hyperlink r:id="rId67" ref="B22"/>
-    <hyperlink r:id="rId68" ref="C22"/>
-    <hyperlink r:id="rId69" ref="A23"/>
-    <hyperlink r:id="rId70" ref="B23"/>
-    <hyperlink r:id="rId71" ref="C23"/>
-    <hyperlink r:id="rId72" ref="D23"/>
-    <hyperlink r:id="rId73" ref="A24"/>
-    <hyperlink r:id="rId74" ref="B24"/>
-    <hyperlink r:id="rId75" ref="C24"/>
-    <hyperlink r:id="rId76" ref="A25"/>
-    <hyperlink r:id="rId77" ref="B25"/>
-    <hyperlink r:id="rId78" ref="C25"/>
-    <hyperlink r:id="rId79" ref="A26"/>
-    <hyperlink r:id="rId80" ref="B26"/>
-    <hyperlink r:id="rId81" ref="C26"/>
-    <hyperlink r:id="rId82" ref="A27"/>
-    <hyperlink r:id="rId83" ref="B27"/>
-    <hyperlink r:id="rId84" ref="C27"/>
-    <hyperlink r:id="rId85" ref="A28"/>
-    <hyperlink r:id="rId86" ref="B28"/>
-    <hyperlink r:id="rId87" ref="C28"/>
-    <hyperlink r:id="rId88" ref="D28"/>
-    <hyperlink r:id="rId89" ref="A29"/>
-    <hyperlink r:id="rId90" ref="B29"/>
-    <hyperlink r:id="rId91" ref="C29"/>
-    <hyperlink r:id="rId92" ref="A30"/>
-    <hyperlink r:id="rId93" ref="B30"/>
-    <hyperlink r:id="rId94" ref="C30"/>
-    <hyperlink r:id="rId95" ref="D30"/>
-    <hyperlink r:id="rId96" ref="A31"/>
-    <hyperlink r:id="rId97" ref="B31"/>
-    <hyperlink r:id="rId98" ref="C31"/>
-    <hyperlink r:id="rId99" ref="A32"/>
-    <hyperlink r:id="rId100" ref="B32"/>
-    <hyperlink r:id="rId101" ref="C32"/>
-    <hyperlink r:id="rId102" ref="A33"/>
-    <hyperlink r:id="rId103" ref="B33"/>
-    <hyperlink r:id="rId104" ref="C33"/>
-    <hyperlink r:id="rId105" ref="A34"/>
-    <hyperlink r:id="rId106" ref="B34"/>
-    <hyperlink r:id="rId107" ref="C34"/>
-    <hyperlink r:id="rId108" ref="D34"/>
-    <hyperlink r:id="rId109" ref="A35"/>
-    <hyperlink r:id="rId110" ref="B35"/>
-    <hyperlink r:id="rId111" ref="C35"/>
-    <hyperlink r:id="rId112" ref="A36"/>
-    <hyperlink r:id="rId113" ref="B36"/>
-    <hyperlink r:id="rId114" ref="C36"/>
-    <hyperlink r:id="rId115" ref="A37"/>
-    <hyperlink r:id="rId116" ref="B37"/>
-    <hyperlink r:id="rId117" ref="C37"/>
-    <hyperlink r:id="rId118" ref="A38"/>
-    <hyperlink r:id="rId119" ref="B38"/>
-    <hyperlink r:id="rId120" ref="C38"/>
-    <hyperlink r:id="rId121" ref="A39"/>
-    <hyperlink r:id="rId122" ref="B39"/>
-    <hyperlink r:id="rId123" ref="C39"/>
-    <hyperlink r:id="rId124" ref="A40"/>
-    <hyperlink r:id="rId125" ref="B40"/>
-    <hyperlink r:id="rId126" ref="C40"/>
-    <hyperlink r:id="rId127" ref="A41"/>
-    <hyperlink r:id="rId128" ref="B41"/>
-    <hyperlink r:id="rId129" ref="C41"/>
-    <hyperlink r:id="rId130" ref="A42"/>
-    <hyperlink r:id="rId131" ref="B42"/>
-    <hyperlink r:id="rId132" ref="C42"/>
-    <hyperlink r:id="rId133" ref="A43"/>
-    <hyperlink r:id="rId134" ref="B43"/>
-    <hyperlink r:id="rId135" ref="C43"/>
-    <hyperlink r:id="rId136" ref="A44"/>
-    <hyperlink r:id="rId137" ref="B44"/>
-    <hyperlink r:id="rId138" ref="C44"/>
-    <hyperlink r:id="rId139" ref="A45"/>
-    <hyperlink r:id="rId140" ref="B45"/>
-    <hyperlink r:id="rId141" ref="C45"/>
-    <hyperlink r:id="rId142" ref="A46"/>
-    <hyperlink r:id="rId143" ref="B46"/>
-    <hyperlink r:id="rId144" ref="C46"/>
-    <hyperlink r:id="rId145" ref="A47"/>
-    <hyperlink r:id="rId146" ref="B47"/>
-    <hyperlink r:id="rId147" ref="C47"/>
-    <hyperlink r:id="rId148" ref="A48"/>
-    <hyperlink r:id="rId149" ref="B48"/>
-    <hyperlink r:id="rId150" ref="C48"/>
-    <hyperlink r:id="rId151" ref="D48"/>
-    <hyperlink r:id="rId152" ref="A49"/>
-    <hyperlink r:id="rId153" ref="B49"/>
-    <hyperlink r:id="rId154" ref="C49"/>
-    <hyperlink r:id="rId155" ref="A50"/>
-    <hyperlink r:id="rId156" ref="B50"/>
-    <hyperlink r:id="rId157" ref="C50"/>
-    <hyperlink r:id="rId158" ref="A51"/>
-    <hyperlink r:id="rId159" ref="B51"/>
-    <hyperlink r:id="rId160" ref="C51"/>
-    <hyperlink r:id="rId161" ref="A52"/>
-    <hyperlink r:id="rId162" ref="B52"/>
-    <hyperlink r:id="rId163" ref="C52"/>
-    <hyperlink r:id="rId164" ref="A53"/>
-    <hyperlink r:id="rId165" ref="B53"/>
-    <hyperlink r:id="rId166" ref="C53"/>
-    <hyperlink r:id="rId167" ref="A54"/>
-    <hyperlink r:id="rId168" ref="B54"/>
-    <hyperlink r:id="rId169" ref="C54"/>
-    <hyperlink r:id="rId170" ref="A55"/>
-    <hyperlink r:id="rId171" ref="B55"/>
-    <hyperlink r:id="rId172" ref="C55"/>
-    <hyperlink r:id="rId173" ref="D55"/>
-    <hyperlink r:id="rId174" ref="A56"/>
-    <hyperlink r:id="rId175" ref="B56"/>
-    <hyperlink r:id="rId176" ref="C56"/>
-    <hyperlink r:id="rId177" ref="A57"/>
-    <hyperlink r:id="rId178" ref="B57"/>
-    <hyperlink r:id="rId179" ref="C57"/>
-    <hyperlink r:id="rId180" ref="A58"/>
-    <hyperlink r:id="rId181" ref="B58"/>
-    <hyperlink r:id="rId182" ref="C58"/>
-    <hyperlink r:id="rId183" ref="A59"/>
-    <hyperlink r:id="rId184" ref="B59"/>
-    <hyperlink r:id="rId185" ref="C59"/>
-    <hyperlink r:id="rId186" ref="A60"/>
-    <hyperlink r:id="rId187" ref="B60"/>
-    <hyperlink r:id="rId188" ref="C60"/>
-    <hyperlink r:id="rId189" ref="A61"/>
-    <hyperlink r:id="rId190" ref="B61"/>
-    <hyperlink r:id="rId191" ref="C61"/>
-    <hyperlink r:id="rId192" ref="A62"/>
-    <hyperlink r:id="rId193" ref="B62"/>
-    <hyperlink r:id="rId194" ref="C62"/>
-    <hyperlink r:id="rId195" ref="A63"/>
-    <hyperlink r:id="rId196" ref="B63"/>
-    <hyperlink r:id="rId197" ref="C63"/>
-    <hyperlink r:id="rId198" ref="A64"/>
-    <hyperlink r:id="rId199" ref="B64"/>
-    <hyperlink r:id="rId200" ref="C64"/>
-    <hyperlink r:id="rId201" ref="A65"/>
-    <hyperlink r:id="rId202" ref="B65"/>
-    <hyperlink r:id="rId203" ref="C65"/>
-    <hyperlink r:id="rId204" ref="A66"/>
-    <hyperlink r:id="rId205" ref="B66"/>
-    <hyperlink r:id="rId206" ref="C66"/>
-    <hyperlink r:id="rId207" ref="A67"/>
-    <hyperlink r:id="rId208" ref="B67"/>
-    <hyperlink r:id="rId209" ref="C67"/>
-    <hyperlink r:id="rId210" ref="A68"/>
-    <hyperlink r:id="rId211" ref="B68"/>
-    <hyperlink r:id="rId212" ref="C68"/>
-    <hyperlink r:id="rId213" location=":~:text=O%20topetinho%2Dverde%20%C3%A9%20um,verde%20iridescente%20atr%C3%A1s%20dos%20olhos." ref="A69"/>
-    <hyperlink r:id="rId214" location=":~:text=O%20topetinho%2Dverde%20%C3%A9%20um,verde%20iridescente%20atr%C3%A1s%20dos%20olhos." ref="B69"/>
-    <hyperlink r:id="rId215" ref="C69"/>
-    <hyperlink r:id="rId216" ref="A70"/>
-    <hyperlink r:id="rId217" ref="B70"/>
-    <hyperlink r:id="rId218" ref="C70"/>
-    <hyperlink r:id="rId219" ref="D70"/>
-    <hyperlink r:id="rId220" ref="A71"/>
-    <hyperlink r:id="rId221" ref="B71"/>
-    <hyperlink r:id="rId222" ref="C71"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="C4" r:id="rId9"/>
+    <hyperlink ref="A5" r:id="rId10"/>
+    <hyperlink ref="B5" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="D5" r:id="rId13"/>
+    <hyperlink ref="A6" r:id="rId14"/>
+    <hyperlink ref="B6" r:id="rId15"/>
+    <hyperlink ref="C6" r:id="rId16"/>
+    <hyperlink ref="A7" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="C7" r:id="rId19"/>
+    <hyperlink ref="A8" r:id="rId20"/>
+    <hyperlink ref="B8" r:id="rId21"/>
+    <hyperlink ref="C8" r:id="rId22"/>
+    <hyperlink ref="D8" r:id="rId23"/>
+    <hyperlink ref="B9" r:id="rId24"/>
+    <hyperlink ref="C9" r:id="rId25"/>
+    <hyperlink ref="A10" r:id="rId26"/>
+    <hyperlink ref="B10" r:id="rId27"/>
+    <hyperlink ref="C10" r:id="rId28"/>
+    <hyperlink ref="A11" r:id="rId29"/>
+    <hyperlink ref="B11" r:id="rId30"/>
+    <hyperlink ref="C11" r:id="rId31"/>
+    <hyperlink ref="D11" r:id="rId32"/>
+    <hyperlink ref="A12" r:id="rId33"/>
+    <hyperlink ref="B12" r:id="rId34"/>
+    <hyperlink ref="C12" r:id="rId35"/>
+    <hyperlink ref="A13" r:id="rId36"/>
+    <hyperlink ref="B13" r:id="rId37"/>
+    <hyperlink ref="C13" r:id="rId38"/>
+    <hyperlink ref="A14" r:id="rId39"/>
+    <hyperlink ref="B14" r:id="rId40"/>
+    <hyperlink ref="C14" r:id="rId41"/>
+    <hyperlink ref="D14" r:id="rId42"/>
+    <hyperlink ref="A15" r:id="rId43"/>
+    <hyperlink ref="B15" r:id="rId44"/>
+    <hyperlink ref="C15" r:id="rId45"/>
+    <hyperlink ref="A16" r:id="rId46"/>
+    <hyperlink ref="B16" r:id="rId47"/>
+    <hyperlink ref="C16" r:id="rId48"/>
+    <hyperlink ref="A17" r:id="rId49"/>
+    <hyperlink ref="B17" r:id="rId50"/>
+    <hyperlink ref="C17" r:id="rId51"/>
+    <hyperlink ref="A18" r:id="rId52"/>
+    <hyperlink ref="B18" r:id="rId53"/>
+    <hyperlink ref="C18" r:id="rId54"/>
+    <hyperlink ref="A19" r:id="rId55"/>
+    <hyperlink ref="B19" r:id="rId56"/>
+    <hyperlink ref="C19" r:id="rId57"/>
+    <hyperlink ref="A20" r:id="rId58"/>
+    <hyperlink ref="B20" r:id="rId59"/>
+    <hyperlink ref="C20" r:id="rId60"/>
+    <hyperlink ref="D20" r:id="rId61"/>
+    <hyperlink ref="A21" r:id="rId62"/>
+    <hyperlink ref="B21" r:id="rId63"/>
+    <hyperlink ref="C21" r:id="rId64"/>
+    <hyperlink ref="D21" r:id="rId65"/>
+    <hyperlink ref="A22" r:id="rId66"/>
+    <hyperlink ref="B22" r:id="rId67"/>
+    <hyperlink ref="C22" r:id="rId68"/>
+    <hyperlink ref="A23" r:id="rId69"/>
+    <hyperlink ref="B23" r:id="rId70"/>
+    <hyperlink ref="C23" r:id="rId71"/>
+    <hyperlink ref="D23" r:id="rId72"/>
+    <hyperlink ref="A24" r:id="rId73"/>
+    <hyperlink ref="B24" r:id="rId74"/>
+    <hyperlink ref="C24" r:id="rId75"/>
+    <hyperlink ref="A25" r:id="rId76"/>
+    <hyperlink ref="B25" r:id="rId77"/>
+    <hyperlink ref="C25" r:id="rId78"/>
+    <hyperlink ref="A26" r:id="rId79"/>
+    <hyperlink ref="B26" r:id="rId80"/>
+    <hyperlink ref="C26" r:id="rId81"/>
+    <hyperlink ref="A27" r:id="rId82"/>
+    <hyperlink ref="B27" r:id="rId83"/>
+    <hyperlink ref="C27" r:id="rId84"/>
+    <hyperlink ref="A28" r:id="rId85"/>
+    <hyperlink ref="B28" r:id="rId86"/>
+    <hyperlink ref="C28" r:id="rId87"/>
+    <hyperlink ref="D28" r:id="rId88"/>
+    <hyperlink ref="A29" r:id="rId89"/>
+    <hyperlink ref="B29" r:id="rId90"/>
+    <hyperlink ref="C29" r:id="rId91"/>
+    <hyperlink ref="A30" r:id="rId92"/>
+    <hyperlink ref="B30" r:id="rId93"/>
+    <hyperlink ref="C30" r:id="rId94"/>
+    <hyperlink ref="D30" r:id="rId95"/>
+    <hyperlink ref="A31" r:id="rId96"/>
+    <hyperlink ref="B31" r:id="rId97"/>
+    <hyperlink ref="C31" r:id="rId98"/>
+    <hyperlink ref="A32" r:id="rId99"/>
+    <hyperlink ref="B32" r:id="rId100"/>
+    <hyperlink ref="C32" r:id="rId101"/>
+    <hyperlink ref="A33" r:id="rId102"/>
+    <hyperlink ref="B33" r:id="rId103"/>
+    <hyperlink ref="C33" r:id="rId104"/>
+    <hyperlink ref="A34" r:id="rId105"/>
+    <hyperlink ref="B34" r:id="rId106"/>
+    <hyperlink ref="C34" r:id="rId107"/>
+    <hyperlink ref="D34" r:id="rId108"/>
+    <hyperlink ref="A35" r:id="rId109"/>
+    <hyperlink ref="B35" r:id="rId110"/>
+    <hyperlink ref="C35" r:id="rId111"/>
+    <hyperlink ref="A36" r:id="rId112"/>
+    <hyperlink ref="B36" r:id="rId113"/>
+    <hyperlink ref="C36" r:id="rId114"/>
+    <hyperlink ref="A37" r:id="rId115"/>
+    <hyperlink ref="B37" r:id="rId116"/>
+    <hyperlink ref="C37" r:id="rId117"/>
+    <hyperlink ref="A38" r:id="rId118"/>
+    <hyperlink ref="B38" r:id="rId119"/>
+    <hyperlink ref="C38" r:id="rId120"/>
+    <hyperlink ref="A39" r:id="rId121"/>
+    <hyperlink ref="B39" r:id="rId122"/>
+    <hyperlink ref="C39" r:id="rId123"/>
+    <hyperlink ref="A40" r:id="rId124"/>
+    <hyperlink ref="B40" r:id="rId125"/>
+    <hyperlink ref="C40" r:id="rId126"/>
+    <hyperlink ref="A41" r:id="rId127"/>
+    <hyperlink ref="B41" r:id="rId128"/>
+    <hyperlink ref="C41" r:id="rId129"/>
+    <hyperlink ref="A42" r:id="rId130"/>
+    <hyperlink ref="B42" r:id="rId131"/>
+    <hyperlink ref="C42" r:id="rId132"/>
+    <hyperlink ref="A43" r:id="rId133"/>
+    <hyperlink ref="B43" r:id="rId134"/>
+    <hyperlink ref="C43" r:id="rId135"/>
+    <hyperlink ref="A44" r:id="rId136"/>
+    <hyperlink ref="B44" r:id="rId137"/>
+    <hyperlink ref="C44" r:id="rId138"/>
+    <hyperlink ref="A45" r:id="rId139"/>
+    <hyperlink ref="B45" r:id="rId140"/>
+    <hyperlink ref="C45" r:id="rId141"/>
+    <hyperlink ref="A46" r:id="rId142"/>
+    <hyperlink ref="B46" r:id="rId143"/>
+    <hyperlink ref="C46" r:id="rId144"/>
+    <hyperlink ref="A47" r:id="rId145"/>
+    <hyperlink ref="B47" r:id="rId146"/>
+    <hyperlink ref="C47" r:id="rId147"/>
+    <hyperlink ref="A48" r:id="rId148"/>
+    <hyperlink ref="B48" r:id="rId149"/>
+    <hyperlink ref="C48" r:id="rId150"/>
+    <hyperlink ref="D48" r:id="rId151"/>
+    <hyperlink ref="A49" r:id="rId152"/>
+    <hyperlink ref="B49" r:id="rId153"/>
+    <hyperlink ref="C49" r:id="rId154"/>
+    <hyperlink ref="A50" r:id="rId155"/>
+    <hyperlink ref="B50" r:id="rId156"/>
+    <hyperlink ref="C50" r:id="rId157"/>
+    <hyperlink ref="A51" r:id="rId158"/>
+    <hyperlink ref="B51" r:id="rId159"/>
+    <hyperlink ref="C51" r:id="rId160"/>
+    <hyperlink ref="A52" r:id="rId161"/>
+    <hyperlink ref="B52" r:id="rId162"/>
+    <hyperlink ref="C52" r:id="rId163"/>
+    <hyperlink ref="A53" r:id="rId164"/>
+    <hyperlink ref="B53" r:id="rId165"/>
+    <hyperlink ref="C53" r:id="rId166"/>
+    <hyperlink ref="A54" r:id="rId167"/>
+    <hyperlink ref="B54" r:id="rId168"/>
+    <hyperlink ref="C54" r:id="rId169"/>
+    <hyperlink ref="A55" r:id="rId170"/>
+    <hyperlink ref="B55" r:id="rId171"/>
+    <hyperlink ref="C55" r:id="rId172"/>
+    <hyperlink ref="D55" r:id="rId173"/>
+    <hyperlink ref="A56" r:id="rId174"/>
+    <hyperlink ref="B56" r:id="rId175"/>
+    <hyperlink ref="C56" r:id="rId176"/>
+    <hyperlink ref="A57" r:id="rId177"/>
+    <hyperlink ref="B57" r:id="rId178"/>
+    <hyperlink ref="C57" r:id="rId179"/>
+    <hyperlink ref="A58" r:id="rId180"/>
+    <hyperlink ref="B58" r:id="rId181"/>
+    <hyperlink ref="C58" r:id="rId182"/>
+    <hyperlink ref="A59" r:id="rId183"/>
+    <hyperlink ref="B59" r:id="rId184"/>
+    <hyperlink ref="C59" r:id="rId185"/>
+    <hyperlink ref="A60" r:id="rId186"/>
+    <hyperlink ref="B60" r:id="rId187"/>
+    <hyperlink ref="C60" r:id="rId188"/>
+    <hyperlink ref="A61" r:id="rId189"/>
+    <hyperlink ref="B61" r:id="rId190"/>
+    <hyperlink ref="C61" r:id="rId191"/>
+    <hyperlink ref="A62" r:id="rId192"/>
+    <hyperlink ref="B62" r:id="rId193"/>
+    <hyperlink ref="C62" r:id="rId194"/>
+    <hyperlink ref="A63" r:id="rId195"/>
+    <hyperlink ref="B63" r:id="rId196"/>
+    <hyperlink ref="C63" r:id="rId197"/>
+    <hyperlink ref="A64" r:id="rId198"/>
+    <hyperlink ref="B64" r:id="rId199"/>
+    <hyperlink ref="C64" r:id="rId200"/>
+    <hyperlink ref="A65" r:id="rId201"/>
+    <hyperlink ref="B65" r:id="rId202"/>
+    <hyperlink ref="C65" r:id="rId203"/>
+    <hyperlink ref="A66" r:id="rId204"/>
+    <hyperlink ref="B66" r:id="rId205"/>
+    <hyperlink ref="C66" r:id="rId206"/>
+    <hyperlink ref="A67" r:id="rId207"/>
+    <hyperlink ref="B67" r:id="rId208"/>
+    <hyperlink ref="C67" r:id="rId209"/>
+    <hyperlink ref="A68" r:id="rId210"/>
+    <hyperlink ref="B68" r:id="rId211"/>
+    <hyperlink ref="C68" r:id="rId212"/>
+    <hyperlink ref="A69" r:id="rId213" location=":~:text=O%20topetinho%2Dverde%20%C3%A9%20um,verde%20iridescente%20atr%C3%A1s%20dos%20olhos."/>
+    <hyperlink ref="B69" r:id="rId214" location=":~:text=O%20topetinho%2Dverde%20%C3%A9%20um,verde%20iridescente%20atr%C3%A1s%20dos%20olhos."/>
+    <hyperlink ref="C69" r:id="rId215"/>
+    <hyperlink ref="A70" r:id="rId216"/>
+    <hyperlink ref="B70" r:id="rId217"/>
+    <hyperlink ref="C70" r:id="rId218"/>
+    <hyperlink ref="D70" r:id="rId219"/>
+    <hyperlink ref="A71" r:id="rId220"/>
+    <hyperlink ref="B71" r:id="rId221"/>
+    <hyperlink ref="C71" r:id="rId222"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId223"/>
 </worksheet>
 </file>